--- a/AAII_Financials/Quarterly/SGLB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SGLB_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>SGLB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -740,13 +747,13 @@
         <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
@@ -764,7 +771,7 @@
         <v>100</v>
       </c>
       <c r="M8" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
@@ -773,10 +780,16 @@
         <v>300</v>
       </c>
       <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>300</v>
+      </c>
+      <c r="R8" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -784,10 +797,10 @@
         <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
@@ -802,25 +815,31 @@
         <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -834,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -846,25 +865,31 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
       <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,19 +906,21 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3">
-        <v>100</v>
-      </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
@@ -920,13 +947,19 @@
         <v>100</v>
       </c>
       <c r="O12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -983,11 +1022,11 @@
       <c r="F14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -996,36 +1035,42 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>900</v>
-      </c>
-      <c r="L14" s="3">
-        <v>200</v>
-      </c>
-      <c r="M14" s="3">
-        <v>200</v>
       </c>
       <c r="N14" s="3">
         <v>200</v>
       </c>
       <c r="O14" s="3">
+        <v>200</v>
+      </c>
+      <c r="P14" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1040,25 +1085,31 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>200</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
       <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
         <v>200</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1123,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1081,43 +1134,49 @@
         <v>1800</v>
       </c>
       <c r="E17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1200</v>
       </c>
       <c r="M17" s="3">
         <v>1200</v>
       </c>
       <c r="N17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P17" s="3">
         <v>1300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1184,49 @@
         <v>-1600</v>
       </c>
       <c r="E18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1205,69 +1272,81 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-1100</v>
       </c>
       <c r="K21" s="3">
         <v>-1300</v>
       </c>
       <c r="L21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1293,25 +1372,31 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
-        <v>100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1322,40 +1407,46 @@
         <v>-1600</v>
       </c>
       <c r="F23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1539,14 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1454,84 +1557,96 @@
         <v>-1600</v>
       </c>
       <c r="F26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1600</v>
+        <v>-1900</v>
       </c>
       <c r="E27" s="3">
         <v>-1600</v>
       </c>
       <c r="F27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1733,69 +1872,81 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1600</v>
+        <v>-1900</v>
       </c>
       <c r="E33" s="3">
         <v>-1600</v>
       </c>
       <c r="F33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1600</v>
+        <v>-1900</v>
       </c>
       <c r="E35" s="3">
         <v>-1600</v>
       </c>
       <c r="F35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2067,10 +2252,10 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
@@ -2079,57 +2264,63 @@
         <v>200</v>
       </c>
       <c r="J43" s="3">
+        <v>200</v>
+      </c>
+      <c r="K43" s="3">
+        <v>200</v>
+      </c>
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E44" s="3">
         <v>600</v>
       </c>
       <c r="F44" s="3">
+        <v>700</v>
+      </c>
+      <c r="G44" s="3">
+        <v>600</v>
+      </c>
+      <c r="H44" s="3">
         <v>300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3">
-        <v>100</v>
-      </c>
-      <c r="J44" s="3">
-        <v>100</v>
-      </c>
       <c r="K44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
         <v>200</v>
@@ -2141,21 +2332,27 @@
         <v>200</v>
       </c>
       <c r="P44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>200</v>
+      </c>
+      <c r="R44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2173,10 +2370,10 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2187,52 +2384,64 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>900</v>
+      </c>
+      <c r="F46" s="3">
         <v>2200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>5500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,31 +2484,37 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
       </c>
       <c r="G48" s="3">
+        <v>200</v>
+      </c>
+      <c r="H48" s="3">
+        <v>200</v>
+      </c>
+      <c r="I48" s="3">
         <v>300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>300</v>
-      </c>
-      <c r="I48" s="3">
-        <v>400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>400</v>
       </c>
       <c r="K48" s="3">
         <v>400</v>
@@ -2308,19 +2523,25 @@
         <v>400</v>
       </c>
       <c r="M48" s="3">
+        <v>400</v>
+      </c>
+      <c r="N48" s="3">
+        <v>400</v>
+      </c>
+      <c r="O48" s="3">
         <v>500</v>
-      </c>
-      <c r="N48" s="3">
-        <v>600</v>
-      </c>
-      <c r="O48" s="3">
-        <v>600</v>
       </c>
       <c r="P48" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>600</v>
+      </c>
+      <c r="R48" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2328,22 +2549,22 @@
         <v>600</v>
       </c>
       <c r="E49" s="3">
+        <v>600</v>
+      </c>
+      <c r="F49" s="3">
+        <v>600</v>
+      </c>
+      <c r="G49" s="3">
         <v>500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>400</v>
-      </c>
-      <c r="I49" s="3">
-        <v>300</v>
-      </c>
-      <c r="J49" s="3">
-        <v>300</v>
       </c>
       <c r="K49" s="3">
         <v>300</v>
@@ -2352,10 +2573,10 @@
         <v>300</v>
       </c>
       <c r="M49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O49" s="3">
         <v>200</v>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>200</v>
+      </c>
+      <c r="R49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="3">
+        <v>100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>100</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="G52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>100</v>
-      </c>
       <c r="I52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>200</v>
+      </c>
+      <c r="R52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F54" s="3">
         <v>2900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>6500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,57 +2878,65 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
       <c r="N57" s="3">
+        <v>100</v>
+      </c>
+      <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
-        <v>100</v>
-      </c>
-      <c r="P57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -2693,22 +2960,28 @@
         <v>100</v>
       </c>
       <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
         <v>1000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>600</v>
       </c>
-      <c r="P58" s="3" t="s">
+      <c r="R58" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2719,22 +2992,22 @@
         <v>300</v>
       </c>
       <c r="F59" s="3">
+        <v>300</v>
+      </c>
+      <c r="G59" s="3">
+        <v>300</v>
+      </c>
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
@@ -2746,57 +3019,69 @@
         <v>200</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
-      </c>
-      <c r="H60" s="3">
-        <v>600</v>
-      </c>
-      <c r="I60" s="3">
-        <v>600</v>
       </c>
       <c r="J60" s="3">
         <v>600</v>
       </c>
       <c r="K60" s="3">
+        <v>600</v>
+      </c>
+      <c r="L60" s="3">
+        <v>600</v>
+      </c>
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +3124,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2874,17 +3165,23 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>11</v>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>100</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F66" s="3">
         <v>800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>700</v>
-      </c>
-      <c r="H66" s="3">
-        <v>600</v>
-      </c>
-      <c r="I66" s="3">
-        <v>600</v>
       </c>
       <c r="J66" s="3">
         <v>600</v>
       </c>
       <c r="K66" s="3">
+        <v>600</v>
+      </c>
+      <c r="L66" s="3">
+        <v>600</v>
+      </c>
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-24500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-22900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-21300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-19800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-18100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-16800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-15500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-14300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-12800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-11700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-10700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-9800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>700</v>
+      </c>
+      <c r="F76" s="3">
         <v>2100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>4100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>4200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>5100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1600</v>
+        <v>-1900</v>
       </c>
       <c r="E81" s="3">
         <v>-1600</v>
       </c>
       <c r="F81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,19 +4023,21 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -3655,16 +4052,16 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3981,14 +4422,14 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -3996,10 +4437,16 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,19 +4539,25 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
@@ -4107,31 +4566,37 @@
         <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K94" s="3">
+        <v>100</v>
+      </c>
+      <c r="L94" s="3">
         <v>400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4333,43 +4824,49 @@
         <v>2100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>2900</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>5200</v>
       </c>
-      <c r="O100" s="3" t="s">
+      <c r="Q100" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P100" s="3" t="s">
+      <c r="R100" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>2200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-700</v>
       </c>
       <c r="M102" s="3">
         <v>-1200</v>
       </c>
       <c r="N102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P102" s="3">
         <v>4200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SGLB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SGLB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>SGLB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -747,16 +751,16 @@
         <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
@@ -777,24 +781,27 @@
         <v>100</v>
       </c>
       <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
-        <v>100</v>
-      </c>
       <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
         <v>300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
@@ -803,7 +810,7 @@
         <v>200</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
@@ -821,10 +828,10 @@
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
@@ -833,31 +840,34 @@
         <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>-100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
@@ -871,25 +881,28 @@
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -917,13 +931,13 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
         <v>200</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
@@ -953,13 +967,16 @@
         <v>100</v>
       </c>
       <c r="Q12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R12" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,13 +1025,16 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>11</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>11</v>
@@ -1028,8 +1048,8 @@
       <c r="H14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1041,10 +1061,10 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>900</v>
-      </c>
-      <c r="N14" s="3">
-        <v>200</v>
       </c>
       <c r="O14" s="3">
         <v>200</v>
@@ -1053,13 +1073,16 @@
         <v>200</v>
       </c>
       <c r="Q14" s="3">
+        <v>200</v>
+      </c>
+      <c r="R14" s="3">
         <v>400</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1070,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1091,11 +1114,11 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
         <v>200</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
@@ -1103,13 +1126,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
         <v>200</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="S15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,13 +1151,14 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="E17" s="3">
         <v>1800</v>
@@ -1140,25 +1167,25 @@
         <v>1800</v>
       </c>
       <c r="G17" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="H17" s="3">
         <v>1600</v>
       </c>
       <c r="I17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J17" s="3">
         <v>1800</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1500</v>
       </c>
       <c r="K17" s="3">
         <v>1500</v>
       </c>
       <c r="L17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M17" s="3">
         <v>1300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1200</v>
       </c>
       <c r="N17" s="3">
         <v>1200</v>
@@ -1167,66 +1194,72 @@
         <v>1200</v>
       </c>
       <c r="P17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1700</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-1600</v>
       </c>
       <c r="G18" s="3">
         <v>-1600</v>
       </c>
       <c r="H18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1700</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-1400</v>
       </c>
       <c r="K18" s="3">
         <v>-1400</v>
       </c>
       <c r="L18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-1100</v>
       </c>
       <c r="N18" s="3">
         <v>-1100</v>
       </c>
       <c r="O18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,13 +1278,14 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1278,75 +1312,81 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1600</v>
+        <v>-900</v>
       </c>
       <c r="E21" s="3">
         <v>-1600</v>
       </c>
       <c r="F21" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="G21" s="3">
         <v>-1500</v>
       </c>
       <c r="H21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1600</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-1300</v>
       </c>
       <c r="K21" s="3">
         <v>-1300</v>
       </c>
       <c r="L21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-900</v>
       </c>
       <c r="P21" s="3">
         <v>-900</v>
       </c>
       <c r="Q21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1378,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
-        <v>100</v>
-      </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1392,16 +1432,19 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1600</v>
+        <v>-900</v>
       </c>
       <c r="E23" s="3">
         <v>-1600</v>
@@ -1413,40 +1456,43 @@
         <v>-1600</v>
       </c>
       <c r="H23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-1000</v>
       </c>
       <c r="P23" s="3">
         <v>-1000</v>
       </c>
       <c r="Q23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,13 +1594,16 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1600</v>
+        <v>-900</v>
       </c>
       <c r="E26" s="3">
         <v>-1600</v>
@@ -1563,48 +1615,51 @@
         <v>-1600</v>
       </c>
       <c r="H26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-1000</v>
       </c>
       <c r="P26" s="3">
         <v>-1000</v>
       </c>
       <c r="Q26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-1600</v>
       </c>
       <c r="F27" s="3">
         <v>-1600</v>
@@ -1613,40 +1668,43 @@
         <v>-1600</v>
       </c>
       <c r="H27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-1000</v>
       </c>
       <c r="P27" s="3">
         <v>-1000</v>
       </c>
       <c r="Q27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,13 +1912,16 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1878,33 +1948,36 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-1600</v>
       </c>
       <c r="F33" s="3">
         <v>-1600</v>
@@ -1913,40 +1986,43 @@
         <v>-1600</v>
       </c>
       <c r="H33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-1000</v>
       </c>
       <c r="P33" s="3">
         <v>-1000</v>
       </c>
       <c r="Q33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,16 +2071,19 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-1600</v>
       </c>
       <c r="F35" s="3">
         <v>-1600</v>
@@ -2013,95 +2092,101 @@
         <v>-1600</v>
       </c>
       <c r="H35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-1000</v>
       </c>
       <c r="P35" s="3">
         <v>-1000</v>
       </c>
       <c r="Q35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>1100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,13 +2330,16 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -2258,7 +2351,7 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>200</v>
@@ -2270,60 +2363,63 @@
         <v>200</v>
       </c>
       <c r="L43" s="3">
+        <v>200</v>
+      </c>
+      <c r="M43" s="3">
         <v>300</v>
-      </c>
-      <c r="M43" s="3">
-        <v>900</v>
       </c>
       <c r="N43" s="3">
         <v>900</v>
       </c>
       <c r="O43" s="3">
+        <v>900</v>
+      </c>
+      <c r="P43" s="3">
         <v>1000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>600</v>
+      </c>
+      <c r="E44" s="3">
         <v>500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>300</v>
-      </c>
-      <c r="I44" s="3">
-        <v>200</v>
       </c>
       <c r="J44" s="3">
         <v>200</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L44" s="3">
         <v>100</v>
       </c>
       <c r="M44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N44" s="3">
         <v>200</v>
@@ -2338,10 +2434,13 @@
         <v>200</v>
       </c>
       <c r="R44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="S44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2349,13 +2448,13 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -2376,7 +2475,7 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2390,63 +2489,69 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2502,7 +2610,7 @@
         <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
@@ -2511,13 +2619,13 @@
         <v>200</v>
       </c>
       <c r="I48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>300</v>
       </c>
       <c r="K48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L48" s="3">
         <v>400</v>
@@ -2529,10 +2637,10 @@
         <v>400</v>
       </c>
       <c r="O48" s="3">
+        <v>400</v>
+      </c>
+      <c r="P48" s="3">
         <v>500</v>
-      </c>
-      <c r="P48" s="3">
-        <v>600</v>
       </c>
       <c r="Q48" s="3">
         <v>600</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2555,19 +2666,19 @@
         <v>600</v>
       </c>
       <c r="G49" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H49" s="3">
         <v>500</v>
       </c>
       <c r="I49" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J49" s="3">
         <v>400</v>
       </c>
       <c r="K49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L49" s="3">
         <v>300</v>
@@ -2579,7 +2690,7 @@
         <v>300</v>
       </c>
       <c r="O49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P49" s="3">
         <v>200</v>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2701,20 +2821,20 @@
       <c r="E52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>11</v>
+      <c r="F52" s="3">
+        <v>100</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
@@ -2723,16 +2843,16 @@
         <v>100</v>
       </c>
       <c r="M52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
       <c r="O52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q52" s="3">
         <v>200</v>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,31 +3010,32 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
-      </c>
-      <c r="F57" s="3">
-        <v>400</v>
       </c>
       <c r="G57" s="3">
         <v>400</v>
       </c>
       <c r="H57" s="3">
+        <v>400</v>
+      </c>
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
@@ -2913,7 +3044,7 @@
         <v>300</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -2922,16 +3053,19 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
-        <v>100</v>
-      </c>
       <c r="R57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2939,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -2966,27 +3100,30 @@
         <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>1000</v>
       </c>
       <c r="P58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q58" s="3">
         <v>900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>600</v>
       </c>
-      <c r="R58" s="3" t="s">
+      <c r="S58" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
         <v>300</v>
@@ -2998,19 +3135,19 @@
         <v>300</v>
       </c>
       <c r="H59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>400</v>
       </c>
       <c r="J59" s="3">
+        <v>400</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
-      </c>
-      <c r="L59" s="3">
-        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
@@ -3025,13 +3162,16 @@
         <v>200</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3039,22 +3179,22 @@
         <v>700</v>
       </c>
       <c r="E60" s="3">
+        <v>700</v>
+      </c>
+      <c r="F60" s="3">
         <v>1000</v>
-      </c>
-      <c r="F60" s="3">
-        <v>800</v>
       </c>
       <c r="G60" s="3">
         <v>800</v>
       </c>
       <c r="H60" s="3">
+        <v>800</v>
+      </c>
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
-      </c>
-      <c r="J60" s="3">
-        <v>600</v>
       </c>
       <c r="K60" s="3">
         <v>600</v>
@@ -3063,25 +3203,28 @@
         <v>600</v>
       </c>
       <c r="M60" s="3">
+        <v>600</v>
+      </c>
+      <c r="N60" s="3">
         <v>400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1300</v>
       </c>
       <c r="O60" s="3">
         <v>1300</v>
       </c>
       <c r="P60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,28 +3273,31 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -3171,17 +3317,20 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q62" s="3">
-        <v>100</v>
-      </c>
-      <c r="R62" s="3" t="s">
+      <c r="R62" s="3">
+        <v>100</v>
+      </c>
+      <c r="S62" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,8 +3485,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3339,22 +3497,22 @@
         <v>700</v>
       </c>
       <c r="E66" s="3">
+        <v>700</v>
+      </c>
+      <c r="F66" s="3">
         <v>1000</v>
-      </c>
-      <c r="F66" s="3">
-        <v>800</v>
       </c>
       <c r="G66" s="3">
         <v>800</v>
       </c>
       <c r="H66" s="3">
+        <v>800</v>
+      </c>
+      <c r="I66" s="3">
         <v>900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>700</v>
-      </c>
-      <c r="J66" s="3">
-        <v>600</v>
       </c>
       <c r="K66" s="3">
         <v>600</v>
@@ -3363,25 +3521,28 @@
         <v>600</v>
       </c>
       <c r="M66" s="3">
+        <v>600</v>
+      </c>
+      <c r="N66" s="3">
         <v>400</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1300</v>
       </c>
       <c r="O66" s="3">
         <v>1300</v>
       </c>
       <c r="P66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-28000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-26100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-24500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-22900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-21300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-19800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-18100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-15500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-9800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,71 +4089,77 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-1600</v>
       </c>
       <c r="F81" s="3">
         <v>-1600</v>
@@ -3973,40 +4168,43 @@
         <v>-1600</v>
       </c>
       <c r="H81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-1000</v>
       </c>
       <c r="P81" s="3">
         <v>-1000</v>
       </c>
       <c r="Q81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4037,10 +4236,10 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -4058,25 +4257,28 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1700</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-1100</v>
       </c>
       <c r="I89" s="3">
         <v>-1100</v>
       </c>
       <c r="J89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4428,11 +4649,11 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -4443,10 +4664,13 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,22 +4772,25 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
@@ -4572,31 +4802,34 @@
         <v>-100</v>
       </c>
       <c r="K94" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L94" s="3">
+        <v>100</v>
+      </c>
+      <c r="M94" s="3">
         <v>400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-600</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E100" s="3">
         <v>2100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>2100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>2900</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>-200</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>5200</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SGLB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SGLB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>SGLB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -754,16 +758,16 @@
         <v>200</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
@@ -784,19 +788,22 @@
         <v>100</v>
       </c>
       <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="Q8" s="3">
-        <v>100</v>
-      </c>
       <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
         <v>300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -804,7 +811,7 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>200</v>
@@ -813,7 +820,7 @@
         <v>200</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I9" s="3">
         <v>100</v>
@@ -831,10 +838,10 @@
         <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
@@ -843,13 +850,16 @@
         <v>100</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -857,20 +867,20 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
@@ -884,25 +894,28 @@
         <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -934,13 +948,13 @@
         <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
         <v>200</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
@@ -970,13 +984,16 @@
         <v>100</v>
       </c>
       <c r="R12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S12" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,16 +1045,19 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>11</v>
@@ -1051,8 +1071,8 @@
       <c r="I14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1064,10 +1084,10 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>900</v>
-      </c>
-      <c r="O14" s="3">
-        <v>200</v>
       </c>
       <c r="P14" s="3">
         <v>200</v>
@@ -1076,18 +1096,21 @@
         <v>200</v>
       </c>
       <c r="R14" s="3">
+        <v>200</v>
+      </c>
+      <c r="S14" s="3">
         <v>400</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1096,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -1117,11 +1140,11 @@
         <v>0</v>
       </c>
       <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>200</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
@@ -1129,13 +1152,16 @@
         <v>0</v>
       </c>
       <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
         <v>200</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="T15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,16 +1178,17 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1600</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1800</v>
       </c>
       <c r="F17" s="3">
         <v>1800</v>
@@ -1170,25 +1197,25 @@
         <v>1800</v>
       </c>
       <c r="H17" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="I17" s="3">
         <v>1600</v>
       </c>
       <c r="J17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K17" s="3">
         <v>1800</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1500</v>
       </c>
       <c r="L17" s="3">
         <v>1500</v>
       </c>
       <c r="M17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N17" s="3">
         <v>1300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1200</v>
       </c>
       <c r="O17" s="3">
         <v>1200</v>
@@ -1197,69 +1224,75 @@
         <v>1200</v>
       </c>
       <c r="Q17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R17" s="3">
         <v>1300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-1600</v>
       </c>
       <c r="H18" s="3">
         <v>-1600</v>
       </c>
       <c r="I18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-1400</v>
       </c>
       <c r="L18" s="3">
         <v>-1400</v>
       </c>
       <c r="M18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="N18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-1100</v>
       </c>
       <c r="O18" s="3">
         <v>-1100</v>
       </c>
       <c r="P18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,17 +1312,18 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1315,78 +1349,84 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-900</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-1600</v>
       </c>
       <c r="F21" s="3">
         <v>-1600</v>
       </c>
       <c r="G21" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="H21" s="3">
         <v>-1500</v>
       </c>
       <c r="I21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1600</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-1300</v>
       </c>
       <c r="L21" s="3">
         <v>-1300</v>
       </c>
       <c r="M21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="N21" s="3">
         <v>-1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-900</v>
       </c>
       <c r="Q21" s="3">
         <v>-900</v>
       </c>
       <c r="R21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1421,13 +1461,13 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
-        <v>100</v>
-      </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1435,19 +1475,22 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-1600</v>
       </c>
       <c r="F23" s="3">
         <v>-1600</v>
@@ -1459,40 +1502,43 @@
         <v>-1600</v>
       </c>
       <c r="I23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q23" s="3">
         <v>-1000</v>
       </c>
       <c r="R23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,16 +1646,19 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-1600</v>
       </c>
       <c r="F26" s="3">
         <v>-1600</v>
@@ -1618,51 +1670,54 @@
         <v>-1600</v>
       </c>
       <c r="I26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q26" s="3">
         <v>-1000</v>
       </c>
       <c r="R26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-1600</v>
       </c>
       <c r="G27" s="3">
         <v>-1600</v>
@@ -1671,40 +1726,43 @@
         <v>-1600</v>
       </c>
       <c r="I27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q27" s="3">
         <v>-1000</v>
       </c>
       <c r="R27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,17 +1982,20 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -1951,36 +2021,39 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-1600</v>
       </c>
       <c r="G33" s="3">
         <v>-1600</v>
@@ -1989,40 +2062,43 @@
         <v>-1600</v>
       </c>
       <c r="I33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q33" s="3">
         <v>-1000</v>
       </c>
       <c r="R33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,19 +2150,22 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-1600</v>
       </c>
       <c r="G35" s="3">
         <v>-1600</v>
@@ -2095,98 +2174,104 @@
         <v>-1600</v>
       </c>
       <c r="I35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q35" s="3">
         <v>-1000</v>
       </c>
       <c r="R35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E41" s="3">
         <v>2400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>1100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>400</v>
       </c>
-      <c r="S41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,17 +2423,20 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
-        <v>100</v>
-      </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
@@ -2354,7 +2447,7 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>200</v>
@@ -2366,28 +2459,31 @@
         <v>200</v>
       </c>
       <c r="M43" s="3">
+        <v>200</v>
+      </c>
+      <c r="N43" s="3">
         <v>300</v>
-      </c>
-      <c r="N43" s="3">
-        <v>900</v>
       </c>
       <c r="O43" s="3">
         <v>900</v>
       </c>
       <c r="P43" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q43" s="3">
         <v>1000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2395,34 +2491,34 @@
         <v>600</v>
       </c>
       <c r="E44" s="3">
+        <v>600</v>
+      </c>
+      <c r="F44" s="3">
         <v>500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>300</v>
-      </c>
-      <c r="J44" s="3">
-        <v>200</v>
       </c>
       <c r="K44" s="3">
         <v>200</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M44" s="3">
         <v>100</v>
       </c>
       <c r="N44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
         <v>200</v>
@@ -2437,10 +2533,13 @@
         <v>200</v>
       </c>
       <c r="S44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="T44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2451,13 +2550,13 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -2478,7 +2577,7 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2492,70 +2591,76 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E46" s="3">
         <v>3400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
       <c r="F47" s="3">
         <v>0</v>
       </c>
@@ -2598,13 +2703,16 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
@@ -2613,7 +2721,7 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
@@ -2622,13 +2730,13 @@
         <v>200</v>
       </c>
       <c r="J48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>300</v>
       </c>
       <c r="L48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M48" s="3">
         <v>400</v>
@@ -2640,10 +2748,10 @@
         <v>400</v>
       </c>
       <c r="P48" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q48" s="3">
         <v>500</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>600</v>
       </c>
       <c r="R48" s="3">
         <v>600</v>
@@ -2651,13 +2759,16 @@
       <c r="S48" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E49" s="3">
         <v>600</v>
@@ -2669,19 +2780,19 @@
         <v>600</v>
       </c>
       <c r="H49" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I49" s="3">
         <v>500</v>
       </c>
       <c r="J49" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K49" s="3">
         <v>400</v>
       </c>
       <c r="L49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M49" s="3">
         <v>300</v>
@@ -2693,7 +2804,7 @@
         <v>300</v>
       </c>
       <c r="P49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q49" s="3">
         <v>200</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2824,20 +2944,20 @@
       <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>11</v>
+      <c r="G52" s="3">
+        <v>100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
       <c r="K52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>100</v>
@@ -2846,16 +2966,16 @@
         <v>100</v>
       </c>
       <c r="N52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
       <c r="P52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R52" s="3">
         <v>200</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E54" s="3">
         <v>4200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,34 +3141,35 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
-      </c>
-      <c r="G57" s="3">
-        <v>400</v>
       </c>
       <c r="H57" s="3">
         <v>400</v>
       </c>
       <c r="I57" s="3">
+        <v>400</v>
+      </c>
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
@@ -3047,7 +3178,7 @@
         <v>300</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -3056,16 +3187,19 @@
         <v>100</v>
       </c>
       <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
-        <v>100</v>
-      </c>
       <c r="S57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3076,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -3103,30 +3237,33 @@
         <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
         <v>1000</v>
       </c>
       <c r="Q58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R58" s="3">
         <v>900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>600</v>
       </c>
-      <c r="S58" s="3" t="s">
+      <c r="T58" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
-      </c>
-      <c r="E59" s="3">
-        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
@@ -3138,19 +3275,19 @@
         <v>300</v>
       </c>
       <c r="I59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>400</v>
       </c>
       <c r="K59" s="3">
+        <v>400</v>
+      </c>
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
@@ -3165,39 +3302,42 @@
         <v>200</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E60" s="3">
         <v>700</v>
       </c>
       <c r="F60" s="3">
+        <v>700</v>
+      </c>
+      <c r="G60" s="3">
         <v>1000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>800</v>
       </c>
       <c r="H60" s="3">
         <v>800</v>
       </c>
       <c r="I60" s="3">
+        <v>800</v>
+      </c>
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
-      </c>
-      <c r="K60" s="3">
-        <v>600</v>
       </c>
       <c r="L60" s="3">
         <v>600</v>
@@ -3206,25 +3346,28 @@
         <v>600</v>
       </c>
       <c r="N60" s="3">
+        <v>600</v>
+      </c>
+      <c r="O60" s="3">
         <v>400</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1300</v>
       </c>
       <c r="P60" s="3">
         <v>1300</v>
       </c>
       <c r="Q60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,22 +3419,25 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>11</v>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>11</v>
@@ -3299,8 +3445,8 @@
       <c r="I62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="J62" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3320,17 +3466,20 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R62" s="3">
-        <v>100</v>
-      </c>
-      <c r="S62" s="3" t="s">
+      <c r="S62" s="3">
+        <v>100</v>
+      </c>
+      <c r="T62" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,34 +3643,37 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E66" s="3">
         <v>700</v>
       </c>
       <c r="F66" s="3">
+        <v>700</v>
+      </c>
+      <c r="G66" s="3">
         <v>1000</v>
-      </c>
-      <c r="G66" s="3">
-        <v>800</v>
       </c>
       <c r="H66" s="3">
         <v>800</v>
       </c>
       <c r="I66" s="3">
+        <v>800</v>
+      </c>
+      <c r="J66" s="3">
         <v>900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>700</v>
-      </c>
-      <c r="K66" s="3">
-        <v>600</v>
       </c>
       <c r="L66" s="3">
         <v>600</v>
@@ -3524,25 +3682,28 @@
         <v>600</v>
       </c>
       <c r="N66" s="3">
+        <v>600</v>
+      </c>
+      <c r="O66" s="3">
         <v>400</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1300</v>
       </c>
       <c r="P66" s="3">
         <v>1300</v>
       </c>
       <c r="Q66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-29600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-28000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-26100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-24500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-22900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-21300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-19800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-18100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-16800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-14300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-10700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-9800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E76" s="3">
         <v>3600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,77 +4281,83 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-1600</v>
       </c>
       <c r="G81" s="3">
         <v>-1600</v>
@@ -4171,40 +4366,43 @@
         <v>-1600</v>
       </c>
       <c r="I81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q81" s="3">
         <v>-1000</v>
       </c>
       <c r="R81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,13 +4422,14 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4239,10 +4438,10 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -4260,25 +4459,28 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1700</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-1100</v>
       </c>
       <c r="J89" s="3">
         <v>-1100</v>
       </c>
       <c r="K89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,13 +4836,14 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4652,11 +4873,11 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
@@ -4667,10 +4888,13 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,25 +5002,28 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
@@ -4805,31 +5035,34 @@
         <v>-100</v>
       </c>
       <c r="L94" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M94" s="3">
+        <v>100</v>
+      </c>
+      <c r="N94" s="3">
         <v>400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-600</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E100" s="3">
         <v>2800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>2100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>2900</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>-200</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>5200</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E102" s="3">
         <v>1800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SGLB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SGLB_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,16 +764,16 @@
         <v>200</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
@@ -791,30 +794,33 @@
         <v>100</v>
       </c>
       <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
         <v>300</v>
       </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
       <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
         <v>300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>200</v>
@@ -823,7 +829,7 @@
         <v>200</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
@@ -841,10 +847,10 @@
         <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
         <v>100</v>
@@ -853,37 +859,40 @@
         <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>-100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
@@ -897,25 +906,28 @@
         <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -951,13 +964,13 @@
         <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
         <v>200</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
@@ -987,13 +1000,16 @@
         <v>100</v>
       </c>
       <c r="S12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T12" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,19 +1064,22 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>11</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>11</v>
@@ -1074,8 +1093,8 @@
       <c r="J14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1087,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>900</v>
-      </c>
-      <c r="P14" s="3">
-        <v>200</v>
       </c>
       <c r="Q14" s="3">
         <v>200</v>
@@ -1099,21 +1118,24 @@
         <v>200</v>
       </c>
       <c r="S14" s="3">
+        <v>200</v>
+      </c>
+      <c r="T14" s="3">
         <v>400</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1122,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1143,11 +1165,11 @@
         <v>0</v>
       </c>
       <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
         <v>200</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
@@ -1155,13 +1177,16 @@
         <v>0</v>
       </c>
       <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
         <v>200</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="U15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,19 +1204,20 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1800</v>
       </c>
       <c r="G17" s="3">
         <v>1800</v>
@@ -1200,25 +1226,25 @@
         <v>1800</v>
       </c>
       <c r="I17" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="J17" s="3">
         <v>1600</v>
       </c>
       <c r="K17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L17" s="3">
         <v>1800</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1500</v>
       </c>
       <c r="M17" s="3">
         <v>1500</v>
       </c>
       <c r="N17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O17" s="3">
         <v>1300</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1200</v>
       </c>
       <c r="P17" s="3">
         <v>1200</v>
@@ -1227,72 +1253,78 @@
         <v>1200</v>
       </c>
       <c r="R17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S17" s="3">
         <v>1300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-1600</v>
       </c>
       <c r="I18" s="3">
         <v>-1600</v>
       </c>
       <c r="J18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1700</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-1400</v>
       </c>
       <c r="M18" s="3">
         <v>-1400</v>
       </c>
       <c r="N18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-1100</v>
       </c>
       <c r="P18" s="3">
         <v>-1100</v>
       </c>
       <c r="Q18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,11 +1355,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1352,81 +1385,87 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-900</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-1600</v>
       </c>
       <c r="G21" s="3">
         <v>-1600</v>
       </c>
       <c r="H21" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="I21" s="3">
         <v>-1500</v>
       </c>
       <c r="J21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1600</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-1300</v>
       </c>
       <c r="M21" s="3">
         <v>-1300</v>
       </c>
       <c r="N21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="O21" s="3">
         <v>-1100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-900</v>
       </c>
       <c r="R21" s="3">
         <v>-900</v>
       </c>
       <c r="S21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1464,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
-        <v>100</v>
-      </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1478,22 +1517,25 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-1600</v>
       </c>
       <c r="G23" s="3">
         <v>-1600</v>
@@ -1505,40 +1547,43 @@
         <v>-1600</v>
       </c>
       <c r="J23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-1000</v>
       </c>
       <c r="R23" s="3">
         <v>-1000</v>
       </c>
       <c r="S23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,19 +1697,22 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-1600</v>
       </c>
       <c r="G26" s="3">
         <v>-1600</v>
@@ -1673,54 +1724,57 @@
         <v>-1600</v>
       </c>
       <c r="J26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-1000</v>
       </c>
       <c r="R26" s="3">
         <v>-1000</v>
       </c>
       <c r="S26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-1600</v>
       </c>
       <c r="H27" s="3">
         <v>-1600</v>
@@ -1729,40 +1783,43 @@
         <v>-1600</v>
       </c>
       <c r="J27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-1000</v>
       </c>
       <c r="R27" s="3">
         <v>-1000</v>
       </c>
       <c r="S27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,11 +2063,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2024,39 +2093,42 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-1600</v>
       </c>
       <c r="H33" s="3">
         <v>-1600</v>
@@ -2065,40 +2137,43 @@
         <v>-1600</v>
       </c>
       <c r="J33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-1000</v>
       </c>
       <c r="R33" s="3">
         <v>-1000</v>
       </c>
       <c r="S33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,22 +2228,25 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-1600</v>
       </c>
       <c r="H35" s="3">
         <v>-1600</v>
@@ -2177,101 +2255,107 @@
         <v>-1600</v>
       </c>
       <c r="J35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-1000</v>
       </c>
       <c r="R35" s="3">
         <v>-1000</v>
       </c>
       <c r="S35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E41" s="3">
         <v>4500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>400</v>
       </c>
-      <c r="T41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,20 +2515,23 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
@@ -2450,7 +2542,7 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
@@ -2462,66 +2554,69 @@
         <v>200</v>
       </c>
       <c r="N43" s="3">
+        <v>200</v>
+      </c>
+      <c r="O43" s="3">
         <v>300</v>
-      </c>
-      <c r="O43" s="3">
-        <v>900</v>
       </c>
       <c r="P43" s="3">
         <v>900</v>
       </c>
       <c r="Q43" s="3">
+        <v>900</v>
+      </c>
+      <c r="R43" s="3">
         <v>1000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="T43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E44" s="3">
         <v>600</v>
       </c>
       <c r="F44" s="3">
+        <v>600</v>
+      </c>
+      <c r="G44" s="3">
         <v>500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>300</v>
-      </c>
-      <c r="K44" s="3">
-        <v>200</v>
       </c>
       <c r="L44" s="3">
         <v>200</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N44" s="3">
         <v>100</v>
       </c>
       <c r="O44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P44" s="3">
         <v>200</v>
@@ -2536,10 +2631,13 @@
         <v>200</v>
       </c>
       <c r="T44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="U44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2553,13 +2651,13 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -2580,7 +2678,7 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2594,76 +2692,82 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E46" s="3">
         <v>5700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
       <c r="G47" s="3">
         <v>0</v>
       </c>
@@ -2706,17 +2810,20 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>100</v>
+      </c>
+      <c r="E48" s="3">
         <v>200</v>
       </c>
-      <c r="E48" s="3">
-        <v>100</v>
-      </c>
       <c r="F48" s="3">
         <v>100</v>
       </c>
@@ -2724,7 +2831,7 @@
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>200</v>
@@ -2733,13 +2840,13 @@
         <v>200</v>
       </c>
       <c r="K48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>300</v>
       </c>
       <c r="M48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N48" s="3">
         <v>400</v>
@@ -2751,10 +2858,10 @@
         <v>400</v>
       </c>
       <c r="Q48" s="3">
+        <v>400</v>
+      </c>
+      <c r="R48" s="3">
         <v>500</v>
-      </c>
-      <c r="R48" s="3">
-        <v>600</v>
       </c>
       <c r="S48" s="3">
         <v>600</v>
@@ -2762,16 +2869,19 @@
       <c r="T48" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>800</v>
+      </c>
+      <c r="E49" s="3">
         <v>700</v>
-      </c>
-      <c r="E49" s="3">
-        <v>600</v>
       </c>
       <c r="F49" s="3">
         <v>600</v>
@@ -2783,19 +2893,19 @@
         <v>600</v>
       </c>
       <c r="I49" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J49" s="3">
         <v>500</v>
       </c>
       <c r="K49" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L49" s="3">
         <v>400</v>
       </c>
       <c r="M49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N49" s="3">
         <v>300</v>
@@ -2807,7 +2917,7 @@
         <v>300</v>
       </c>
       <c r="Q49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R49" s="3">
         <v>200</v>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,13 +3046,16 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
@@ -2947,20 +3066,20 @@
       <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>11</v>
+      <c r="H52" s="3">
+        <v>100</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M52" s="3">
         <v>100</v>
@@ -2969,16 +3088,16 @@
         <v>100</v>
       </c>
       <c r="O52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
       <c r="Q52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S52" s="3">
         <v>200</v>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E54" s="3">
         <v>6600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,37 +3271,38 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
-      </c>
-      <c r="H57" s="3">
-        <v>400</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
       </c>
       <c r="J57" s="3">
+        <v>400</v>
+      </c>
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
@@ -3181,7 +3311,7 @@
         <v>300</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
@@ -3190,16 +3320,19 @@
         <v>100</v>
       </c>
       <c r="R57" s="3">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
-        <v>100</v>
-      </c>
       <c r="T57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3213,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
@@ -3240,22 +3373,25 @@
         <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
         <v>1000</v>
       </c>
       <c r="R58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S58" s="3">
         <v>900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>600</v>
       </c>
-      <c r="T58" s="3" t="s">
+      <c r="U58" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3263,10 +3399,10 @@
         <v>300</v>
       </c>
       <c r="E59" s="3">
+        <v>300</v>
+      </c>
+      <c r="F59" s="3">
         <v>400</v>
-      </c>
-      <c r="F59" s="3">
-        <v>300</v>
       </c>
       <c r="G59" s="3">
         <v>300</v>
@@ -3278,19 +3414,19 @@
         <v>300</v>
       </c>
       <c r="J59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K59" s="3">
         <v>400</v>
       </c>
       <c r="L59" s="3">
+        <v>400</v>
+      </c>
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
-      </c>
-      <c r="N59" s="3">
-        <v>200</v>
       </c>
       <c r="O59" s="3">
         <v>200</v>
@@ -3305,13 +3441,16 @@
         <v>200</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3319,28 +3458,28 @@
         <v>500</v>
       </c>
       <c r="E60" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="F60" s="3">
         <v>700</v>
       </c>
       <c r="G60" s="3">
+        <v>700</v>
+      </c>
+      <c r="H60" s="3">
         <v>1000</v>
-      </c>
-      <c r="H60" s="3">
-        <v>800</v>
       </c>
       <c r="I60" s="3">
         <v>800</v>
       </c>
       <c r="J60" s="3">
+        <v>800</v>
+      </c>
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
-      </c>
-      <c r="L60" s="3">
-        <v>600</v>
       </c>
       <c r="M60" s="3">
         <v>600</v>
@@ -3349,25 +3488,28 @@
         <v>600</v>
       </c>
       <c r="O60" s="3">
+        <v>600</v>
+      </c>
+      <c r="P60" s="3">
         <v>400</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1300</v>
       </c>
       <c r="Q60" s="3">
         <v>1300</v>
       </c>
       <c r="R60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S60" s="3">
         <v>1400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3431,16 +3576,16 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>11</v>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>11</v>
@@ -3448,8 +3593,8 @@
       <c r="J62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3469,17 +3614,20 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S62" s="3">
-        <v>100</v>
-      </c>
-      <c r="T62" s="3" t="s">
+      <c r="T62" s="3">
+        <v>100</v>
+      </c>
+      <c r="U62" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,37 +3800,40 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>500</v>
+      </c>
+      <c r="E66" s="3">
         <v>600</v>
-      </c>
-      <c r="E66" s="3">
-        <v>700</v>
       </c>
       <c r="F66" s="3">
         <v>700</v>
       </c>
       <c r="G66" s="3">
+        <v>700</v>
+      </c>
+      <c r="H66" s="3">
         <v>1000</v>
-      </c>
-      <c r="H66" s="3">
-        <v>800</v>
       </c>
       <c r="I66" s="3">
         <v>800</v>
       </c>
       <c r="J66" s="3">
+        <v>800</v>
+      </c>
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>700</v>
-      </c>
-      <c r="L66" s="3">
-        <v>600</v>
       </c>
       <c r="M66" s="3">
         <v>600</v>
@@ -3685,25 +3842,28 @@
         <v>600</v>
       </c>
       <c r="O66" s="3">
+        <v>600</v>
+      </c>
+      <c r="P66" s="3">
         <v>400</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1300</v>
       </c>
       <c r="Q66" s="3">
         <v>1300</v>
       </c>
       <c r="R66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-31600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-29600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-28000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-26100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-24500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-22900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-21300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-19800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-18100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-16800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-14300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-10700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-9800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E76" s="3">
         <v>6100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,83 +4472,89 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-1600</v>
       </c>
       <c r="H81" s="3">
         <v>-1600</v>
@@ -4369,40 +4563,43 @@
         <v>-1600</v>
       </c>
       <c r="J81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-1000</v>
       </c>
       <c r="R81" s="3">
         <v>-1000</v>
       </c>
       <c r="S81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,16 +4620,17 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -4441,10 +4639,10 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -4462,25 +4660,28 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1700</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-1100</v>
       </c>
       <c r="K89" s="3">
         <v>-1100</v>
       </c>
       <c r="L89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,17 +5056,18 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -4876,11 +5096,11 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
@@ -4891,10 +5111,13 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,28 +5231,31 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
@@ -5038,31 +5267,34 @@
         <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N94" s="3">
+        <v>100</v>
+      </c>
+      <c r="O94" s="3">
         <v>400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-600</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>3500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>2100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>2900</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>-200</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>5200</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>2100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SGLB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SGLB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>SGLB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,101 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
@@ -767,16 +771,16 @@
         <v>200</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
@@ -797,33 +801,36 @@
         <v>100</v>
       </c>
       <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
         <v>300</v>
       </c>
-      <c r="S8" s="3">
-        <v>100</v>
-      </c>
       <c r="T8" s="3">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
         <v>300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
-        <v>100</v>
-      </c>
       <c r="F9" s="3">
         <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>200</v>
@@ -832,7 +839,7 @@
         <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
@@ -850,10 +857,10 @@
         <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
@@ -862,40 +869,43 @@
         <v>100</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
@@ -909,25 +919,28 @@
         <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
       <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
         <v>300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,13 +962,14 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -967,13 +981,13 @@
         <v>100</v>
       </c>
       <c r="H12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3">
         <v>200</v>
       </c>
       <c r="J12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
@@ -1003,13 +1017,16 @@
         <v>100</v>
       </c>
       <c r="T12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U12" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,22 +1084,25 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>11</v>
@@ -1096,8 +1116,8 @@
       <c r="K14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1109,10 +1129,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>900</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>200</v>
       </c>
       <c r="R14" s="3">
         <v>200</v>
@@ -1121,13 +1141,16 @@
         <v>200</v>
       </c>
       <c r="T14" s="3">
+        <v>200</v>
+      </c>
+      <c r="U14" s="3">
         <v>400</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1135,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1147,10 +1170,10 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1168,11 +1191,11 @@
         <v>0</v>
       </c>
       <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
         <v>200</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
       <c r="R15" s="3">
         <v>0</v>
       </c>
@@ -1180,13 +1203,16 @@
         <v>0</v>
       </c>
       <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
         <v>200</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="V15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,22 +1231,23 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1800</v>
       </c>
       <c r="H17" s="3">
         <v>1800</v>
@@ -1229,25 +1256,25 @@
         <v>1800</v>
       </c>
       <c r="J17" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K17" s="3">
         <v>1600</v>
       </c>
       <c r="L17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M17" s="3">
         <v>1800</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1500</v>
       </c>
       <c r="N17" s="3">
         <v>1500</v>
       </c>
       <c r="O17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P17" s="3">
         <v>1300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1200</v>
       </c>
       <c r="Q17" s="3">
         <v>1200</v>
@@ -1256,75 +1283,81 @@
         <v>1200</v>
       </c>
       <c r="S17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T17" s="3">
         <v>1300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1700</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-1600</v>
       </c>
       <c r="J18" s="3">
         <v>-1600</v>
       </c>
       <c r="K18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L18" s="3">
         <v>-1500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1700</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-1400</v>
       </c>
       <c r="N18" s="3">
         <v>-1400</v>
       </c>
       <c r="O18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="P18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-1100</v>
       </c>
       <c r="Q18" s="3">
         <v>-1100</v>
       </c>
       <c r="R18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,23 +1379,24 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1388,84 +1422,90 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>400</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-900</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-1600</v>
       </c>
       <c r="H21" s="3">
         <v>-1600</v>
       </c>
       <c r="I21" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="J21" s="3">
         <v>-1500</v>
       </c>
       <c r="K21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="L21" s="3">
         <v>-1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1600</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-1300</v>
       </c>
       <c r="N21" s="3">
         <v>-1300</v>
       </c>
       <c r="O21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="P21" s="3">
         <v>-1100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-900</v>
       </c>
       <c r="S21" s="3">
         <v>-900</v>
       </c>
       <c r="T21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1506,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
-        <v>100</v>
-      </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1520,25 +1560,28 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-1600</v>
       </c>
       <c r="H23" s="3">
         <v>-1600</v>
@@ -1550,40 +1593,43 @@
         <v>-1600</v>
       </c>
       <c r="K23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-1000</v>
       </c>
       <c r="S23" s="3">
         <v>-1000</v>
       </c>
       <c r="T23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,22 +1749,25 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-1600</v>
       </c>
       <c r="H26" s="3">
         <v>-1600</v>
@@ -1727,57 +1779,60 @@
         <v>-1600</v>
       </c>
       <c r="K26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-1000</v>
       </c>
       <c r="S26" s="3">
         <v>-1000</v>
       </c>
       <c r="T26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-1600</v>
       </c>
       <c r="I27" s="3">
         <v>-1600</v>
@@ -1786,40 +1841,43 @@
         <v>-1600</v>
       </c>
       <c r="K27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-1000</v>
       </c>
       <c r="S27" s="3">
         <v>-1000</v>
       </c>
       <c r="T27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,23 +2121,26 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2096,42 +2166,45 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-1600</v>
       </c>
       <c r="I33" s="3">
         <v>-1600</v>
@@ -2140,40 +2213,43 @@
         <v>-1600</v>
       </c>
       <c r="K33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-1000</v>
       </c>
       <c r="S33" s="3">
         <v>-1000</v>
       </c>
       <c r="T33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,25 +2307,28 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-1600</v>
       </c>
       <c r="I35" s="3">
         <v>-1600</v>
@@ -2258,104 +2337,110 @@
         <v>-1600</v>
       </c>
       <c r="K35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-1000</v>
       </c>
       <c r="S35" s="3">
         <v>-1000</v>
       </c>
       <c r="T35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E41" s="3">
         <v>3700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>400</v>
       </c>
-      <c r="U41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,23 +2608,26 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
-        <v>100</v>
-      </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
@@ -2545,7 +2638,7 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>200</v>
@@ -2557,28 +2650,31 @@
         <v>200</v>
       </c>
       <c r="O43" s="3">
+        <v>200</v>
+      </c>
+      <c r="P43" s="3">
         <v>300</v>
-      </c>
-      <c r="P43" s="3">
-        <v>900</v>
       </c>
       <c r="Q43" s="3">
         <v>900</v>
       </c>
       <c r="R43" s="3">
+        <v>900</v>
+      </c>
+      <c r="S43" s="3">
         <v>1000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>300</v>
       </c>
-      <c r="U43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2586,40 +2682,40 @@
         <v>700</v>
       </c>
       <c r="E44" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F44" s="3">
         <v>600</v>
       </c>
       <c r="G44" s="3">
+        <v>600</v>
+      </c>
+      <c r="H44" s="3">
         <v>500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>300</v>
-      </c>
-      <c r="L44" s="3">
-        <v>200</v>
       </c>
       <c r="M44" s="3">
         <v>200</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O44" s="3">
         <v>100</v>
       </c>
       <c r="P44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q44" s="3">
         <v>200</v>
@@ -2634,10 +2730,13 @@
         <v>200</v>
       </c>
       <c r="U44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="V44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2654,13 +2753,13 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -2681,7 +2780,7 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2695,82 +2794,88 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E46" s="3">
         <v>4800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
@@ -2813,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2822,11 +2930,11 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
+        <v>100</v>
+      </c>
+      <c r="F48" s="3">
         <v>200</v>
       </c>
-      <c r="F48" s="3">
-        <v>100</v>
-      </c>
       <c r="G48" s="3">
         <v>100</v>
       </c>
@@ -2834,7 +2942,7 @@
         <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
@@ -2843,13 +2951,13 @@
         <v>200</v>
       </c>
       <c r="L48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>300</v>
       </c>
       <c r="N48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O48" s="3">
         <v>400</v>
@@ -2861,10 +2969,10 @@
         <v>400</v>
       </c>
       <c r="R48" s="3">
+        <v>400</v>
+      </c>
+      <c r="S48" s="3">
         <v>500</v>
-      </c>
-      <c r="S48" s="3">
-        <v>600</v>
       </c>
       <c r="T48" s="3">
         <v>600</v>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2881,10 +2992,10 @@
         <v>800</v>
       </c>
       <c r="E49" s="3">
+        <v>800</v>
+      </c>
+      <c r="F49" s="3">
         <v>700</v>
-      </c>
-      <c r="F49" s="3">
-        <v>600</v>
       </c>
       <c r="G49" s="3">
         <v>600</v>
@@ -2896,19 +3007,19 @@
         <v>600</v>
       </c>
       <c r="J49" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K49" s="3">
         <v>500</v>
       </c>
       <c r="L49" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M49" s="3">
         <v>400</v>
       </c>
       <c r="N49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O49" s="3">
         <v>300</v>
@@ -2920,7 +3031,7 @@
         <v>300</v>
       </c>
       <c r="R49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S49" s="3">
         <v>200</v>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3058,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -3069,20 +3189,20 @@
       <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>11</v>
+      <c r="I52" s="3">
+        <v>100</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
       <c r="M52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N52" s="3">
         <v>100</v>
@@ -3091,16 +3211,16 @@
         <v>100</v>
       </c>
       <c r="P52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
       <c r="R52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T52" s="3">
         <v>200</v>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,40 +3402,41 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
-      </c>
-      <c r="I57" s="3">
-        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
       </c>
       <c r="K57" s="3">
+        <v>400</v>
+      </c>
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
@@ -3314,7 +3445,7 @@
         <v>300</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
@@ -3323,21 +3454,24 @@
         <v>100</v>
       </c>
       <c r="S57" s="3">
+        <v>100</v>
+      </c>
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
-        <v>100</v>
-      </c>
       <c r="U57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3349,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
@@ -3376,36 +3510,39 @@
         <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>1000</v>
       </c>
       <c r="S58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T58" s="3">
         <v>900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>600</v>
       </c>
-      <c r="U58" s="3" t="s">
+      <c r="V58" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>5200</v>
       </c>
       <c r="E59" s="3">
         <v>300</v>
       </c>
       <c r="F59" s="3">
+        <v>300</v>
+      </c>
+      <c r="G59" s="3">
         <v>400</v>
-      </c>
-      <c r="G59" s="3">
-        <v>300</v>
       </c>
       <c r="H59" s="3">
         <v>300</v>
@@ -3417,19 +3554,19 @@
         <v>300</v>
       </c>
       <c r="K59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L59" s="3">
         <v>400</v>
       </c>
       <c r="M59" s="3">
+        <v>400</v>
+      </c>
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
-      </c>
-      <c r="O59" s="3">
-        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
@@ -3444,45 +3581,48 @@
         <v>200</v>
       </c>
       <c r="T59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>500</v>
+        <v>5500</v>
       </c>
       <c r="E60" s="3">
         <v>500</v>
       </c>
       <c r="F60" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G60" s="3">
         <v>700</v>
       </c>
       <c r="H60" s="3">
+        <v>700</v>
+      </c>
+      <c r="I60" s="3">
         <v>1000</v>
-      </c>
-      <c r="I60" s="3">
-        <v>800</v>
       </c>
       <c r="J60" s="3">
         <v>800</v>
       </c>
       <c r="K60" s="3">
+        <v>800</v>
+      </c>
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
-      </c>
-      <c r="M60" s="3">
-        <v>600</v>
       </c>
       <c r="N60" s="3">
         <v>600</v>
@@ -3491,25 +3631,28 @@
         <v>600</v>
       </c>
       <c r="P60" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q60" s="3">
         <v>400</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>1300</v>
       </c>
       <c r="R60" s="3">
         <v>1300</v>
       </c>
       <c r="S60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T60" s="3">
         <v>1400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3579,16 +3725,16 @@
         <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>11</v>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>11</v>
@@ -3596,8 +3742,8 @@
       <c r="K62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3617,17 +3763,20 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-      <c r="S62" s="3" t="s">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T62" s="3">
-        <v>100</v>
-      </c>
-      <c r="U62" s="3" t="s">
+      <c r="U62" s="3">
+        <v>100</v>
+      </c>
+      <c r="V62" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,40 +3958,43 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E66" s="3">
         <v>500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>600</v>
-      </c>
-      <c r="F66" s="3">
-        <v>700</v>
       </c>
       <c r="G66" s="3">
         <v>700</v>
       </c>
       <c r="H66" s="3">
+        <v>700</v>
+      </c>
+      <c r="I66" s="3">
         <v>1000</v>
-      </c>
-      <c r="I66" s="3">
-        <v>800</v>
       </c>
       <c r="J66" s="3">
         <v>800</v>
       </c>
       <c r="K66" s="3">
+        <v>800</v>
+      </c>
+      <c r="L66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>700</v>
-      </c>
-      <c r="M66" s="3">
-        <v>600</v>
       </c>
       <c r="N66" s="3">
         <v>600</v>
@@ -3845,25 +4003,28 @@
         <v>600</v>
       </c>
       <c r="P66" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q66" s="3">
         <v>400</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1300</v>
       </c>
       <c r="R66" s="3">
         <v>1300</v>
       </c>
       <c r="S66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T66" s="3">
         <v>1400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-33100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-31600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-29600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-28000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-26100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-24500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-22900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-21300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-19800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-18100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-16800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-15500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-14300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-10700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-9800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E76" s="3">
         <v>5200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,89 +4664,95 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-1600</v>
       </c>
       <c r="I81" s="3">
         <v>-1600</v>
@@ -4566,40 +4761,43 @@
         <v>-1600</v>
       </c>
       <c r="K81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-1000</v>
       </c>
       <c r="S81" s="3">
         <v>-1000</v>
       </c>
       <c r="T81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4630,10 +4829,10 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -4642,10 +4841,10 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -4663,25 +4862,28 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1700</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-1100</v>
       </c>
       <c r="L89" s="3">
         <v>-1100</v>
       </c>
       <c r="M89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5066,11 +5287,11 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -5099,11 +5320,11 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
@@ -5114,10 +5335,13 @@
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5243,22 +5473,22 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
@@ -5270,31 +5500,34 @@
         <v>-100</v>
       </c>
       <c r="N94" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O94" s="3">
+        <v>100</v>
+      </c>
+      <c r="P94" s="3">
         <v>400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-600</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>2100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>2900</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>-200</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>5200</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SGLB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SGLB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>SGLB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,108 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>500</v>
-      </c>
-      <c r="E8" s="3">
-        <v>200</v>
       </c>
       <c r="F8" s="3">
         <v>200</v>
@@ -774,16 +778,16 @@
         <v>200</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
@@ -804,19 +808,22 @@
         <v>100</v>
       </c>
       <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
         <v>300</v>
       </c>
-      <c r="T8" s="3">
-        <v>100</v>
-      </c>
       <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
         <v>300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -824,16 +831,16 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
-        <v>100</v>
-      </c>
       <c r="G9" s="3">
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>200</v>
@@ -842,7 +849,7 @@
         <v>200</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
@@ -860,10 +867,10 @@
         <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3">
         <v>100</v>
@@ -872,43 +879,46 @@
         <v>100</v>
       </c>
       <c r="U9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
@@ -922,25 +932,28 @@
         <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
       <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <v>300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,17 +976,18 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>300</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3">
-        <v>100</v>
-      </c>
       <c r="F12" s="3">
         <v>100</v>
       </c>
@@ -984,13 +998,13 @@
         <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J12" s="3">
         <v>200</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
@@ -1020,13 +1034,16 @@
         <v>100</v>
       </c>
       <c r="U12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V12" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,25 +1104,28 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>11</v>
@@ -1119,8 +1139,8 @@
       <c r="L14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1132,10 +1152,10 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>900</v>
-      </c>
-      <c r="R14" s="3">
-        <v>200</v>
       </c>
       <c r="S14" s="3">
         <v>200</v>
@@ -1144,13 +1164,16 @@
         <v>200</v>
       </c>
       <c r="U14" s="3">
+        <v>200</v>
+      </c>
+      <c r="V14" s="3">
         <v>400</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1161,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1173,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1194,11 +1217,11 @@
         <v>0</v>
       </c>
       <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
         <v>200</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
@@ -1206,13 +1229,16 @@
         <v>0</v>
       </c>
       <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
         <v>200</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="W15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,25 +1258,26 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1800</v>
       </c>
       <c r="I17" s="3">
         <v>1800</v>
@@ -1259,25 +1286,25 @@
         <v>1800</v>
       </c>
       <c r="K17" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="L17" s="3">
         <v>1600</v>
       </c>
       <c r="M17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N17" s="3">
         <v>1800</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1500</v>
       </c>
       <c r="O17" s="3">
         <v>1500</v>
       </c>
       <c r="P17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1200</v>
       </c>
       <c r="R17" s="3">
         <v>1200</v>
@@ -1286,78 +1313,84 @@
         <v>1200</v>
       </c>
       <c r="T17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U17" s="3">
         <v>1300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1700</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-1600</v>
       </c>
       <c r="K18" s="3">
         <v>-1600</v>
       </c>
       <c r="L18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1700</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-1400</v>
       </c>
       <c r="O18" s="3">
         <v>-1400</v>
       </c>
       <c r="P18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-1100</v>
       </c>
       <c r="R18" s="3">
         <v>-1100</v>
       </c>
       <c r="S18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="T18" s="3">
         <v>-900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,26 +1413,27 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1425,87 +1459,93 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>400</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-900</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-1600</v>
       </c>
       <c r="I21" s="3">
         <v>-1600</v>
       </c>
       <c r="J21" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="K21" s="3">
         <v>-1500</v>
       </c>
       <c r="L21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="M21" s="3">
         <v>-1400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1600</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-1300</v>
       </c>
       <c r="O21" s="3">
         <v>-1300</v>
       </c>
       <c r="P21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-900</v>
       </c>
       <c r="T21" s="3">
         <v>-900</v>
       </c>
       <c r="U21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1549,13 +1589,13 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
-        <v>100</v>
-      </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1563,28 +1603,31 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-1600</v>
       </c>
       <c r="I23" s="3">
         <v>-1600</v>
@@ -1596,40 +1639,43 @@
         <v>-1600</v>
       </c>
       <c r="L23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-1000</v>
       </c>
       <c r="T23" s="3">
         <v>-1000</v>
       </c>
       <c r="U23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,25 +1801,28 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-1600</v>
       </c>
       <c r="I26" s="3">
         <v>-1600</v>
@@ -1782,60 +1834,63 @@
         <v>-1600</v>
       </c>
       <c r="L26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-1000</v>
       </c>
       <c r="T26" s="3">
         <v>-1000</v>
       </c>
       <c r="U26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-1600</v>
       </c>
       <c r="J27" s="3">
         <v>-1600</v>
@@ -1844,40 +1899,43 @@
         <v>-1600</v>
       </c>
       <c r="L27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M27" s="3">
         <v>-1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-1000</v>
       </c>
       <c r="T27" s="3">
         <v>-1000</v>
       </c>
       <c r="U27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,26 +2191,29 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2169,45 +2239,48 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-400</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-1600</v>
       </c>
       <c r="J33" s="3">
         <v>-1600</v>
@@ -2216,40 +2289,43 @@
         <v>-1600</v>
       </c>
       <c r="L33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-1000</v>
       </c>
       <c r="T33" s="3">
         <v>-1000</v>
       </c>
       <c r="U33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,28 +2386,31 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-1600</v>
       </c>
       <c r="J35" s="3">
         <v>-1600</v>
@@ -2340,107 +2419,113 @@
         <v>-1600</v>
       </c>
       <c r="L35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-1000</v>
       </c>
       <c r="T35" s="3">
         <v>-1000</v>
       </c>
       <c r="U35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E41" s="3">
         <v>16800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>400</v>
       </c>
-      <c r="V41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2620,17 +2713,17 @@
         <v>400</v>
       </c>
       <c r="E43" s="3">
+        <v>400</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
-        <v>100</v>
-      </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
@@ -2641,7 +2734,7 @@
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>200</v>
@@ -2653,72 +2746,75 @@
         <v>200</v>
       </c>
       <c r="P43" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q43" s="3">
         <v>300</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>900</v>
       </c>
       <c r="R43" s="3">
         <v>900</v>
       </c>
       <c r="S43" s="3">
+        <v>900</v>
+      </c>
+      <c r="T43" s="3">
         <v>1000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>300</v>
       </c>
-      <c r="V43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E44" s="3">
         <v>700</v>
       </c>
       <c r="F44" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G44" s="3">
         <v>600</v>
       </c>
       <c r="H44" s="3">
+        <v>600</v>
+      </c>
+      <c r="I44" s="3">
         <v>500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>300</v>
-      </c>
-      <c r="M44" s="3">
-        <v>200</v>
       </c>
       <c r="N44" s="3">
         <v>200</v>
       </c>
       <c r="O44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P44" s="3">
         <v>100</v>
       </c>
       <c r="Q44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R44" s="3">
         <v>200</v>
@@ -2733,15 +2829,18 @@
         <v>200</v>
       </c>
       <c r="V44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="W44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -2756,13 +2855,13 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2783,7 +2882,7 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -2797,88 +2896,94 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E46" s="3">
         <v>18100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
       <c r="I47" s="3">
         <v>0</v>
       </c>
@@ -2921,23 +3026,26 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
       </c>
       <c r="F48" s="3">
+        <v>100</v>
+      </c>
+      <c r="G48" s="3">
         <v>200</v>
       </c>
-      <c r="G48" s="3">
-        <v>100</v>
-      </c>
       <c r="H48" s="3">
         <v>100</v>
       </c>
@@ -2945,7 +3053,7 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
@@ -2954,13 +3062,13 @@
         <v>200</v>
       </c>
       <c r="M48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N48" s="3">
         <v>300</v>
       </c>
       <c r="O48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P48" s="3">
         <v>400</v>
@@ -2972,10 +3080,10 @@
         <v>400</v>
       </c>
       <c r="S48" s="3">
+        <v>400</v>
+      </c>
+      <c r="T48" s="3">
         <v>500</v>
-      </c>
-      <c r="T48" s="3">
-        <v>600</v>
       </c>
       <c r="U48" s="3">
         <v>600</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2995,10 +3106,10 @@
         <v>800</v>
       </c>
       <c r="F49" s="3">
+        <v>800</v>
+      </c>
+      <c r="G49" s="3">
         <v>700</v>
-      </c>
-      <c r="G49" s="3">
-        <v>600</v>
       </c>
       <c r="H49" s="3">
         <v>600</v>
@@ -3010,19 +3121,19 @@
         <v>600</v>
       </c>
       <c r="K49" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L49" s="3">
         <v>500</v>
       </c>
       <c r="M49" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N49" s="3">
         <v>400</v>
       </c>
       <c r="O49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P49" s="3">
         <v>300</v>
@@ -3034,7 +3145,7 @@
         <v>300</v>
       </c>
       <c r="S49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T49" s="3">
         <v>200</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3181,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -3192,20 +3312,20 @@
       <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>11</v>
+      <c r="J52" s="3">
+        <v>100</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
       <c r="N52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O52" s="3">
         <v>100</v>
@@ -3214,16 +3334,16 @@
         <v>100</v>
       </c>
       <c r="Q52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
       <c r="S52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U52" s="3">
         <v>200</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E54" s="3">
         <v>19000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3412,34 +3543,34 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
-      </c>
-      <c r="J57" s="3">
-        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
       </c>
       <c r="L57" s="3">
+        <v>400</v>
+      </c>
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
@@ -3448,7 +3579,7 @@
         <v>300</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
@@ -3457,24 +3588,27 @@
         <v>100</v>
       </c>
       <c r="T57" s="3">
+        <v>100</v>
+      </c>
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="U57" s="3">
-        <v>100</v>
-      </c>
       <c r="V57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -3486,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
@@ -3513,39 +3647,42 @@
         <v>100</v>
       </c>
       <c r="R58" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="S58" s="3">
         <v>1000</v>
       </c>
       <c r="T58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U58" s="3">
         <v>900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>600</v>
       </c>
-      <c r="V58" s="3" t="s">
+      <c r="W58" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
         <v>5200</v>
-      </c>
-      <c r="E59" s="3">
-        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
       </c>
       <c r="G59" s="3">
+        <v>300</v>
+      </c>
+      <c r="H59" s="3">
         <v>400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
@@ -3557,19 +3694,19 @@
         <v>300</v>
       </c>
       <c r="L59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>400</v>
       </c>
       <c r="N59" s="3">
+        <v>400</v>
+      </c>
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
-      </c>
-      <c r="P59" s="3">
-        <v>200</v>
       </c>
       <c r="Q59" s="3">
         <v>200</v>
@@ -3584,48 +3721,51 @@
         <v>200</v>
       </c>
       <c r="U59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
         <v>5500</v>
-      </c>
-      <c r="E60" s="3">
-        <v>500</v>
       </c>
       <c r="F60" s="3">
         <v>500</v>
       </c>
       <c r="G60" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="H60" s="3">
         <v>700</v>
       </c>
       <c r="I60" s="3">
+        <v>700</v>
+      </c>
+      <c r="J60" s="3">
         <v>1000</v>
-      </c>
-      <c r="J60" s="3">
-        <v>800</v>
       </c>
       <c r="K60" s="3">
         <v>800</v>
       </c>
       <c r="L60" s="3">
+        <v>800</v>
+      </c>
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
-      </c>
-      <c r="N60" s="3">
-        <v>600</v>
       </c>
       <c r="O60" s="3">
         <v>600</v>
@@ -3634,25 +3774,28 @@
         <v>600</v>
       </c>
       <c r="Q60" s="3">
+        <v>600</v>
+      </c>
+      <c r="R60" s="3">
         <v>400</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1300</v>
       </c>
       <c r="S60" s="3">
         <v>1300</v>
       </c>
       <c r="T60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U60" s="3">
         <v>1400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3728,16 +3874,16 @@
         <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>11</v>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>11</v>
@@ -3745,8 +3891,8 @@
       <c r="L62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3766,17 +3912,20 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-      <c r="T62" s="3" t="s">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U62" s="3">
-        <v>100</v>
-      </c>
-      <c r="V62" s="3" t="s">
+      <c r="V62" s="3">
+        <v>100</v>
+      </c>
+      <c r="W62" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,43 +4116,46 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>700</v>
+      </c>
+      <c r="E66" s="3">
         <v>5600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>600</v>
-      </c>
-      <c r="G66" s="3">
-        <v>700</v>
       </c>
       <c r="H66" s="3">
         <v>700</v>
       </c>
       <c r="I66" s="3">
+        <v>700</v>
+      </c>
+      <c r="J66" s="3">
         <v>1000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>800</v>
       </c>
       <c r="K66" s="3">
         <v>800</v>
       </c>
       <c r="L66" s="3">
+        <v>800</v>
+      </c>
+      <c r="M66" s="3">
         <v>900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>700</v>
-      </c>
-      <c r="N66" s="3">
-        <v>600</v>
       </c>
       <c r="O66" s="3">
         <v>600</v>
@@ -4006,25 +4164,28 @@
         <v>600</v>
       </c>
       <c r="Q66" s="3">
+        <v>600</v>
+      </c>
+      <c r="R66" s="3">
         <v>400</v>
-      </c>
-      <c r="R66" s="3">
-        <v>1300</v>
       </c>
       <c r="S66" s="3">
         <v>1300</v>
       </c>
       <c r="T66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U66" s="3">
         <v>1400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-33800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-33100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-31600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-29600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-28000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-26100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-24500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-22900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-21300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-19800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-18100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-16800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-14300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-11700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-10700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-9800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E76" s="3">
         <v>13400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,95 +4856,101 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-1600</v>
       </c>
       <c r="J81" s="3">
         <v>-1600</v>
@@ -4764,40 +4959,43 @@
         <v>-1600</v>
       </c>
       <c r="L81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-1000</v>
       </c>
       <c r="T81" s="3">
         <v>-1000</v>
       </c>
       <c r="U81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4832,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -4844,10 +5043,10 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -4865,25 +5064,28 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
       <c r="T83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1700</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-1100</v>
       </c>
       <c r="M89" s="3">
         <v>-1100</v>
       </c>
       <c r="N89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-1200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5290,11 +5511,11 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -5323,11 +5544,11 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
@@ -5338,10 +5559,13 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,34 +5691,37 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
@@ -5503,31 +5733,34 @@
         <v>-100</v>
       </c>
       <c r="O94" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P94" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q94" s="3">
         <v>400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-600</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>14400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>2100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>2900</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>-200</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>5200</v>
-      </c>
-      <c r="U100" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E102" s="3">
         <v>13100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SGLB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SGLB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>SGLB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>500</v>
-      </c>
-      <c r="F8" s="3">
-        <v>200</v>
       </c>
       <c r="G8" s="3">
         <v>200</v>
@@ -781,16 +785,16 @@
         <v>200</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
@@ -811,39 +815,42 @@
         <v>100</v>
       </c>
       <c r="T8" s="3">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
         <v>300</v>
       </c>
-      <c r="U8" s="3">
-        <v>100</v>
-      </c>
       <c r="V8" s="3">
+        <v>100</v>
+      </c>
+      <c r="W8" s="3">
         <v>300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>100</v>
       </c>
       <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
-        <v>100</v>
-      </c>
       <c r="H9" s="3">
         <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>200</v>
@@ -852,7 +859,7 @@
         <v>200</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M9" s="3">
         <v>100</v>
@@ -870,10 +877,10 @@
         <v>100</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
         <v>100</v>
@@ -882,46 +889,49 @@
         <v>100</v>
       </c>
       <c r="V9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
@@ -935,25 +945,28 @@
         <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
         <v>200</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
       <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,20 +990,21 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
         <v>300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3">
-        <v>100</v>
-      </c>
       <c r="G12" s="3">
         <v>100</v>
       </c>
@@ -1001,13 +1015,13 @@
         <v>100</v>
       </c>
       <c r="J12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K12" s="3">
         <v>200</v>
       </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
@@ -1037,13 +1051,16 @@
         <v>100</v>
       </c>
       <c r="V12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W12" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,28 +1124,31 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>11</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>11</v>
@@ -1142,8 +1162,8 @@
       <c r="M14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1155,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>900</v>
-      </c>
-      <c r="S14" s="3">
-        <v>200</v>
       </c>
       <c r="T14" s="3">
         <v>200</v>
@@ -1167,13 +1187,16 @@
         <v>200</v>
       </c>
       <c r="V14" s="3">
+        <v>200</v>
+      </c>
+      <c r="W14" s="3">
         <v>400</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1187,10 +1210,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -1199,10 +1222,10 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1220,11 +1243,11 @@
         <v>0</v>
       </c>
       <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
         <v>200</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
@@ -1232,13 +1255,16 @@
         <v>0</v>
       </c>
       <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
         <v>200</v>
       </c>
-      <c r="W15" s="3" t="s">
+      <c r="X15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,28 +1285,29 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E17" s="3">
         <v>2300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1800</v>
       </c>
       <c r="J17" s="3">
         <v>1800</v>
@@ -1289,25 +1316,25 @@
         <v>1800</v>
       </c>
       <c r="L17" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M17" s="3">
         <v>1600</v>
       </c>
       <c r="N17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O17" s="3">
         <v>1800</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1500</v>
       </c>
       <c r="P17" s="3">
         <v>1500</v>
       </c>
       <c r="Q17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R17" s="3">
         <v>1300</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1200</v>
       </c>
       <c r="S17" s="3">
         <v>1200</v>
@@ -1316,81 +1343,87 @@
         <v>1200</v>
       </c>
       <c r="U17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V17" s="3">
         <v>1300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-1600</v>
       </c>
       <c r="L18" s="3">
         <v>-1600</v>
       </c>
       <c r="M18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="N18" s="3">
         <v>-1500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1700</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-1400</v>
       </c>
       <c r="P18" s="3">
         <v>-1400</v>
       </c>
       <c r="Q18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="R18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-1100</v>
       </c>
       <c r="S18" s="3">
         <v>-1100</v>
       </c>
       <c r="T18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="U18" s="3">
         <v>-900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,29 +1447,30 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1462,90 +1496,96 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>400</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-900</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-1600</v>
       </c>
       <c r="J21" s="3">
         <v>-1600</v>
       </c>
       <c r="K21" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="L21" s="3">
         <v>-1500</v>
       </c>
       <c r="M21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="N21" s="3">
         <v>-1400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1600</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-1300</v>
       </c>
       <c r="P21" s="3">
         <v>-1300</v>
       </c>
       <c r="Q21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R21" s="3">
         <v>-1100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-900</v>
       </c>
       <c r="U21" s="3">
         <v>-900</v>
       </c>
       <c r="V21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1592,13 +1632,13 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3">
-        <v>100</v>
-      </c>
       <c r="T22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1606,31 +1646,34 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-1600</v>
       </c>
       <c r="J23" s="3">
         <v>-1600</v>
@@ -1642,40 +1685,43 @@
         <v>-1600</v>
       </c>
       <c r="M23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-1000</v>
       </c>
       <c r="U23" s="3">
         <v>-1000</v>
       </c>
       <c r="V23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,28 +1853,31 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-1600</v>
       </c>
       <c r="J26" s="3">
         <v>-1600</v>
@@ -1837,63 +1889,66 @@
         <v>-1600</v>
       </c>
       <c r="M26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="N26" s="3">
         <v>-1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-1000</v>
       </c>
       <c r="U26" s="3">
         <v>-1000</v>
       </c>
       <c r="V26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-1600</v>
       </c>
       <c r="K27" s="3">
         <v>-1600</v>
@@ -1902,40 +1957,43 @@
         <v>-1600</v>
       </c>
       <c r="M27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="N27" s="3">
         <v>-1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1100</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-1000</v>
       </c>
       <c r="U27" s="3">
         <v>-1000</v>
       </c>
       <c r="V27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,29 +2261,32 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2242,48 +2312,51 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-400</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-1600</v>
       </c>
       <c r="K33" s="3">
         <v>-1600</v>
@@ -2292,40 +2365,43 @@
         <v>-1600</v>
       </c>
       <c r="M33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="N33" s="3">
         <v>-1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1100</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-1000</v>
       </c>
       <c r="U33" s="3">
         <v>-1000</v>
       </c>
       <c r="V33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,31 +2465,34 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-1600</v>
       </c>
       <c r="K35" s="3">
         <v>-1600</v>
@@ -2422,110 +2501,116 @@
         <v>-1600</v>
       </c>
       <c r="M35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="N35" s="3">
         <v>-1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1100</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-1000</v>
       </c>
       <c r="U35" s="3">
         <v>-1000</v>
       </c>
       <c r="V35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E41" s="3">
         <v>14700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>1100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>400</v>
       </c>
-      <c r="W41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,29 +2794,32 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E43" s="3">
         <v>400</v>
       </c>
       <c r="F43" s="3">
+        <v>400</v>
+      </c>
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
@@ -2737,7 +2830,7 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>200</v>
@@ -2749,75 +2842,78 @@
         <v>200</v>
       </c>
       <c r="Q43" s="3">
+        <v>200</v>
+      </c>
+      <c r="R43" s="3">
         <v>300</v>
-      </c>
-      <c r="R43" s="3">
-        <v>900</v>
       </c>
       <c r="S43" s="3">
         <v>900</v>
       </c>
       <c r="T43" s="3">
+        <v>900</v>
+      </c>
+      <c r="U43" s="3">
         <v>1000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>300</v>
       </c>
-      <c r="W43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>900</v>
+      </c>
+      <c r="E44" s="3">
         <v>800</v>
-      </c>
-      <c r="E44" s="3">
-        <v>700</v>
       </c>
       <c r="F44" s="3">
         <v>700</v>
       </c>
       <c r="G44" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H44" s="3">
         <v>600</v>
       </c>
       <c r="I44" s="3">
+        <v>600</v>
+      </c>
+      <c r="J44" s="3">
         <v>500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>300</v>
-      </c>
-      <c r="N44" s="3">
-        <v>200</v>
       </c>
       <c r="O44" s="3">
         <v>200</v>
       </c>
       <c r="P44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q44" s="3">
         <v>100</v>
       </c>
       <c r="R44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S44" s="3">
         <v>200</v>
@@ -2832,19 +2928,22 @@
         <v>200</v>
       </c>
       <c r="W44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="X44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
@@ -2858,13 +2957,13 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2885,7 +2984,7 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -2899,73 +2998,79 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E46" s="3">
         <v>16100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>18100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2975,18 +3080,18 @@
       <c r="E47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
       <c r="J47" s="3">
         <v>0</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3038,17 +3146,17 @@
         <v>200</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
       </c>
       <c r="G48" s="3">
+        <v>100</v>
+      </c>
+      <c r="H48" s="3">
         <v>200</v>
       </c>
-      <c r="H48" s="3">
-        <v>100</v>
-      </c>
       <c r="I48" s="3">
         <v>100</v>
       </c>
@@ -3056,7 +3164,7 @@
         <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
@@ -3065,13 +3173,13 @@
         <v>200</v>
       </c>
       <c r="N48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O48" s="3">
         <v>300</v>
       </c>
       <c r="P48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q48" s="3">
         <v>400</v>
@@ -3083,10 +3191,10 @@
         <v>400</v>
       </c>
       <c r="T48" s="3">
+        <v>400</v>
+      </c>
+      <c r="U48" s="3">
         <v>500</v>
-      </c>
-      <c r="U48" s="3">
-        <v>600</v>
       </c>
       <c r="V48" s="3">
         <v>600</v>
@@ -3094,13 +3202,16 @@
       <c r="W48" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E49" s="3">
         <v>800</v>
@@ -3109,10 +3220,10 @@
         <v>800</v>
       </c>
       <c r="G49" s="3">
+        <v>800</v>
+      </c>
+      <c r="H49" s="3">
         <v>700</v>
-      </c>
-      <c r="H49" s="3">
-        <v>600</v>
       </c>
       <c r="I49" s="3">
         <v>600</v>
@@ -3124,19 +3235,19 @@
         <v>600</v>
       </c>
       <c r="L49" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M49" s="3">
         <v>500</v>
       </c>
       <c r="N49" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O49" s="3">
         <v>400</v>
       </c>
       <c r="P49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q49" s="3">
         <v>300</v>
@@ -3148,7 +3259,7 @@
         <v>300</v>
       </c>
       <c r="T49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U49" s="3">
         <v>200</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3304,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
@@ -3315,20 +3435,20 @@
       <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>11</v>
+      <c r="K52" s="3">
+        <v>100</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
       <c r="O52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3">
         <v>100</v>
@@ -3337,16 +3457,16 @@
         <v>100</v>
       </c>
       <c r="R52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
       <c r="T52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V52" s="3">
         <v>200</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E54" s="3">
         <v>17100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>19000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,46 +3664,47 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
-      </c>
-      <c r="K57" s="3">
-        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
       </c>
       <c r="M57" s="3">
+        <v>400</v>
+      </c>
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
-      </c>
-      <c r="O57" s="3">
-        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
@@ -3582,7 +3713,7 @@
         <v>300</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
@@ -3591,16 +3722,19 @@
         <v>100</v>
       </c>
       <c r="U57" s="3">
+        <v>100</v>
+      </c>
+      <c r="V57" s="3">
         <v>300</v>
       </c>
-      <c r="V57" s="3">
-        <v>100</v>
-      </c>
       <c r="W57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3610,8 +3744,8 @@
       <c r="E58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3623,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -3650,42 +3784,45 @@
         <v>100</v>
       </c>
       <c r="S58" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="T58" s="3">
         <v>1000</v>
       </c>
       <c r="U58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V58" s="3">
         <v>900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>600</v>
       </c>
-      <c r="W58" s="3" t="s">
+      <c r="X58" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5200</v>
-      </c>
-      <c r="F59" s="3">
-        <v>300</v>
       </c>
       <c r="G59" s="3">
         <v>300</v>
       </c>
       <c r="H59" s="3">
+        <v>300</v>
+      </c>
+      <c r="I59" s="3">
         <v>400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
@@ -3697,19 +3834,19 @@
         <v>300</v>
       </c>
       <c r="M59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N59" s="3">
         <v>400</v>
       </c>
       <c r="O59" s="3">
+        <v>400</v>
+      </c>
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>200</v>
       </c>
       <c r="R59" s="3">
         <v>200</v>
@@ -3724,51 +3861,54 @@
         <v>200</v>
       </c>
       <c r="V59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5500</v>
-      </c>
-      <c r="F60" s="3">
-        <v>500</v>
       </c>
       <c r="G60" s="3">
         <v>500</v>
       </c>
       <c r="H60" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="I60" s="3">
         <v>700</v>
       </c>
       <c r="J60" s="3">
+        <v>700</v>
+      </c>
+      <c r="K60" s="3">
         <v>1000</v>
-      </c>
-      <c r="K60" s="3">
-        <v>800</v>
       </c>
       <c r="L60" s="3">
         <v>800</v>
       </c>
       <c r="M60" s="3">
+        <v>800</v>
+      </c>
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
-      </c>
-      <c r="O60" s="3">
-        <v>600</v>
       </c>
       <c r="P60" s="3">
         <v>600</v>
@@ -3777,25 +3917,28 @@
         <v>600</v>
       </c>
       <c r="R60" s="3">
+        <v>600</v>
+      </c>
+      <c r="S60" s="3">
         <v>400</v>
-      </c>
-      <c r="S60" s="3">
-        <v>1300</v>
       </c>
       <c r="T60" s="3">
         <v>1300</v>
       </c>
       <c r="U60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V60" s="3">
         <v>1400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3877,16 +4023,16 @@
         <v>100</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>11</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>11</v>
@@ -3894,8 +4040,8 @@
       <c r="M62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3915,17 +4061,20 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-      <c r="U62" s="3" t="s">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V62" s="3">
-        <v>100</v>
-      </c>
-      <c r="W62" s="3" t="s">
+      <c r="W62" s="3">
+        <v>100</v>
+      </c>
+      <c r="X62" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,46 +4274,49 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>900</v>
+      </c>
+      <c r="E66" s="3">
         <v>700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>600</v>
-      </c>
-      <c r="H66" s="3">
-        <v>700</v>
       </c>
       <c r="I66" s="3">
         <v>700</v>
       </c>
       <c r="J66" s="3">
+        <v>700</v>
+      </c>
+      <c r="K66" s="3">
         <v>1000</v>
-      </c>
-      <c r="K66" s="3">
-        <v>800</v>
       </c>
       <c r="L66" s="3">
         <v>800</v>
       </c>
       <c r="M66" s="3">
+        <v>800</v>
+      </c>
+      <c r="N66" s="3">
         <v>900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>700</v>
-      </c>
-      <c r="O66" s="3">
-        <v>600</v>
       </c>
       <c r="P66" s="3">
         <v>600</v>
@@ -4167,25 +4325,28 @@
         <v>600</v>
       </c>
       <c r="R66" s="3">
+        <v>600</v>
+      </c>
+      <c r="S66" s="3">
         <v>400</v>
-      </c>
-      <c r="S66" s="3">
-        <v>1300</v>
       </c>
       <c r="T66" s="3">
         <v>1300</v>
       </c>
       <c r="U66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V66" s="3">
         <v>1400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-35700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-33800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-33100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-31600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-29600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-28000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-26100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-24500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-22900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-21300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-19800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-18100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-16800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-15500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-14300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-11700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-10700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-9800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E76" s="3">
         <v>16400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,101 +5048,107 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-1600</v>
       </c>
       <c r="K81" s="3">
         <v>-1600</v>
@@ -4962,40 +5157,43 @@
         <v>-1600</v>
       </c>
       <c r="M81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="N81" s="3">
         <v>-1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1100</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-1000</v>
       </c>
       <c r="U81" s="3">
         <v>-1000</v>
       </c>
       <c r="V81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5034,10 +5233,10 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -5046,10 +5245,10 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -5067,25 +5266,28 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
       <c r="U83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1700</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-1100</v>
       </c>
       <c r="N89" s="3">
         <v>-1100</v>
       </c>
       <c r="O89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-1200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,13 +5719,14 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5514,11 +5735,11 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -5547,11 +5768,11 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
@@ -5562,10 +5783,13 @@
         <v>0</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5703,28 +5933,28 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
@@ -5736,31 +5966,34 @@
         <v>-100</v>
       </c>
       <c r="P94" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q94" s="3">
+        <v>100</v>
+      </c>
+      <c r="R94" s="3">
         <v>400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-600</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6053,64 +6299,67 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>14400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>2100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>2900</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>-200</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>5200</v>
-      </c>
-      <c r="V100" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="W100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>13100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SGLB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SGLB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>SGLB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,121 +665,128 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>300</v>
+      </c>
+      <c r="F8" s="3">
         <v>700</v>
       </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
         <v>500</v>
-      </c>
-      <c r="G8" s="3">
-        <v>200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>200</v>
       </c>
       <c r="I8" s="3">
         <v>200</v>
@@ -788,19 +795,19 @@
         <v>200</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L8" s="3">
         <v>200</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
         <v>100</v>
@@ -818,7 +825,7 @@
         <v>100</v>
       </c>
       <c r="U8" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="V8" s="3">
         <v>100</v>
@@ -827,45 +834,51 @@
         <v>300</v>
       </c>
       <c r="X8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z8" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
-        <v>100</v>
-      </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G9" s="3">
+        <v>100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
-        <v>100</v>
-      </c>
-      <c r="I9" s="3">
-        <v>100</v>
-      </c>
       <c r="J9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>200</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
@@ -880,51 +893,57 @@
         <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
         <v>100</v>
       </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3">
         <v>100</v>
       </c>
       <c r="W9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -936,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
@@ -948,25 +967,31 @@
         <v>0</v>
       </c>
       <c r="S10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T10" s="3">
         <v>0</v>
       </c>
       <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>200</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
         <v>300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1016,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1003,14 +1030,14 @@
         <v>300</v>
       </c>
       <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
+        <v>300</v>
+      </c>
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
-        <v>100</v>
-      </c>
-      <c r="H12" s="3">
-        <v>100</v>
-      </c>
       <c r="I12" s="3">
         <v>100</v>
       </c>
@@ -1018,17 +1045,17 @@
         <v>100</v>
       </c>
       <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3">
-        <v>100</v>
-      </c>
-      <c r="N12" s="3">
-        <v>100</v>
-      </c>
       <c r="O12" s="3">
         <v>100</v>
       </c>
@@ -1054,13 +1081,19 @@
         <v>100</v>
       </c>
       <c r="W12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,22 +1160,28 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>11</v>
@@ -1153,8 +1192,8 @@
       <c r="J14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>11</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>11</v>
@@ -1165,11 +1204,11 @@
       <c r="N14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1178,25 +1217,31 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>900</v>
-      </c>
-      <c r="T14" s="3">
-        <v>200</v>
-      </c>
-      <c r="U14" s="3">
-        <v>200</v>
       </c>
       <c r="V14" s="3">
         <v>200</v>
       </c>
       <c r="W14" s="3">
+        <v>200</v>
+      </c>
+      <c r="X14" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y14" s="3">
         <v>400</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1213,25 +1258,25 @@
         <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1246,25 +1291,31 @@
         <v>0</v>
       </c>
       <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
         <v>200</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
       <c r="V15" s="3">
         <v>0</v>
       </c>
       <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
         <v>200</v>
       </c>
-      <c r="X15" s="3" t="s">
+      <c r="Z15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1337,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F17" s="3">
         <v>3200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1800</v>
       </c>
       <c r="L17" s="3">
         <v>1800</v>
       </c>
       <c r="M17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1300</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1200</v>
-      </c>
-      <c r="T17" s="3">
-        <v>1200</v>
       </c>
       <c r="U17" s="3">
         <v>1200</v>
       </c>
       <c r="V17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X17" s="3">
         <v>1300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-2200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-1700</v>
       </c>
       <c r="L18" s="3">
         <v>-1600</v>
       </c>
       <c r="M18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="N18" s="3">
         <v>-1600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="P18" s="3">
         <v>-1500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-1200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1513,10 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,26 +1524,26 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1499,93 +1566,105 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-300</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>400</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-1100</v>
       </c>
       <c r="S21" s="3">
         <v>-1300</v>
       </c>
       <c r="T21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="U21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="V21" s="3">
         <v>-1000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1635,51 +1714,57 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
-        <v>100</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
-      <c r="X22" s="3" t="s">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-1600</v>
       </c>
       <c r="L23" s="3">
         <v>-1600</v>
@@ -1688,40 +1773,46 @@
         <v>-1600</v>
       </c>
       <c r="N23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="P23" s="3">
         <v>-1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1879,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,34 +1953,40 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-1600</v>
       </c>
       <c r="L26" s="3">
         <v>-1600</v>
@@ -1892,108 +1995,120 @@
         <v>-1600</v>
       </c>
       <c r="N26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="P26" s="3">
         <v>-1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-2000</v>
       </c>
       <c r="I27" s="3">
         <v>-1600</v>
       </c>
       <c r="J27" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="K27" s="3">
         <v>-1600</v>
       </c>
       <c r="L27" s="3">
-        <v>-1600</v>
+        <v>-1900</v>
       </c>
       <c r="M27" s="3">
         <v>-1600</v>
       </c>
       <c r="N27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="P27" s="3">
         <v>-1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2175,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2249,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2397,14 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,26 +2412,26 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2315,93 +2454,105 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>300</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-400</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-2000</v>
       </c>
       <c r="I33" s="3">
         <v>-1600</v>
       </c>
       <c r="J33" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="K33" s="3">
         <v>-1600</v>
       </c>
       <c r="L33" s="3">
-        <v>-1600</v>
+        <v>-1900</v>
       </c>
       <c r="M33" s="3">
         <v>-1600</v>
       </c>
       <c r="N33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="P33" s="3">
         <v>-1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2619,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-2000</v>
       </c>
       <c r="I35" s="3">
         <v>-1600</v>
       </c>
       <c r="J35" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="K35" s="3">
         <v>-1600</v>
       </c>
       <c r="L35" s="3">
-        <v>-1600</v>
+        <v>-1900</v>
       </c>
       <c r="M35" s="3">
         <v>-1600</v>
       </c>
       <c r="N35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="P35" s="3">
         <v>-1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2832,84 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F41" s="3">
         <v>13100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>14700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>16800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>4500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>1100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>3500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>2700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>3400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>4600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>400</v>
       </c>
-      <c r="X41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,34 +2976,40 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
         <v>400</v>
       </c>
       <c r="F43" s="3">
+        <v>700</v>
+      </c>
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
-        <v>300</v>
-      </c>
       <c r="H43" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I43" s="3">
         <v>300</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
@@ -2833,10 +3018,10 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>200</v>
@@ -2845,81 +3030,87 @@
         <v>200</v>
       </c>
       <c r="R43" s="3">
+        <v>200</v>
+      </c>
+      <c r="S43" s="3">
+        <v>200</v>
+      </c>
+      <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>300</v>
       </c>
-      <c r="X43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>700</v>
+      </c>
+      <c r="F44" s="3">
         <v>900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>600</v>
-      </c>
-      <c r="I44" s="3">
-        <v>600</v>
-      </c>
-      <c r="J44" s="3">
-        <v>500</v>
       </c>
       <c r="K44" s="3">
         <v>600</v>
       </c>
       <c r="L44" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M44" s="3">
         <v>600</v>
       </c>
       <c r="N44" s="3">
+        <v>700</v>
+      </c>
+      <c r="O44" s="3">
+        <v>600</v>
+      </c>
+      <c r="P44" s="3">
         <v>300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>200</v>
       </c>
-      <c r="Q44" s="3">
-        <v>100</v>
-      </c>
-      <c r="R44" s="3">
-        <v>100</v>
-      </c>
       <c r="S44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U44" s="3">
         <v>200</v>
@@ -2931,25 +3122,31 @@
         <v>200</v>
       </c>
       <c r="X44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
@@ -2960,17 +3157,17 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
-        <v>100</v>
-      </c>
-      <c r="N45" s="3">
-        <v>100</v>
-      </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
@@ -2987,10 +3184,10 @@
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3001,103 +3198,115 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F46" s="3">
         <v>14700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>16100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>18100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>5700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>3900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>3800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>4600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>5500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
@@ -3137,55 +3346,61 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H48" s="3">
+        <v>100</v>
+      </c>
+      <c r="I48" s="3">
+        <v>100</v>
+      </c>
+      <c r="J48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3">
-        <v>100</v>
-      </c>
-      <c r="J48" s="3">
-        <v>100</v>
-      </c>
       <c r="K48" s="3">
         <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
         <v>200</v>
       </c>
       <c r="O48" s="3">
+        <v>200</v>
+      </c>
+      <c r="P48" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q48" s="3">
         <v>300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>300</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>400</v>
-      </c>
-      <c r="R48" s="3">
-        <v>400</v>
       </c>
       <c r="S48" s="3">
         <v>400</v>
@@ -3194,42 +3409,48 @@
         <v>400</v>
       </c>
       <c r="U48" s="3">
+        <v>400</v>
+      </c>
+      <c r="V48" s="3">
+        <v>400</v>
+      </c>
+      <c r="W48" s="3">
         <v>500</v>
-      </c>
-      <c r="V48" s="3">
-        <v>600</v>
-      </c>
-      <c r="W48" s="3">
-        <v>600</v>
       </c>
       <c r="X48" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E49" s="3">
         <v>900</v>
       </c>
-      <c r="E49" s="3">
-        <v>800</v>
-      </c>
       <c r="F49" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G49" s="3">
         <v>800</v>
       </c>
       <c r="H49" s="3">
+        <v>800</v>
+      </c>
+      <c r="I49" s="3">
+        <v>800</v>
+      </c>
+      <c r="J49" s="3">
         <v>700</v>
-      </c>
-      <c r="I49" s="3">
-        <v>600</v>
-      </c>
-      <c r="J49" s="3">
-        <v>600</v>
       </c>
       <c r="K49" s="3">
         <v>600</v>
@@ -3238,22 +3459,22 @@
         <v>600</v>
       </c>
       <c r="M49" s="3">
+        <v>600</v>
+      </c>
+      <c r="N49" s="3">
+        <v>600</v>
+      </c>
+      <c r="O49" s="3">
         <v>500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>400</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>300</v>
-      </c>
-      <c r="R49" s="3">
-        <v>300</v>
       </c>
       <c r="S49" s="3">
         <v>300</v>
@@ -3262,10 +3483,10 @@
         <v>300</v>
       </c>
       <c r="U49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W49" s="3">
         <v>200</v>
@@ -3273,8 +3494,14 @@
       <c r="X49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,13 +3642,19 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -3427,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
@@ -3438,47 +3677,53 @@
       <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3" t="s">
+      <c r="L52" s="3">
+        <v>100</v>
+      </c>
+      <c r="M52" s="3">
+        <v>100</v>
+      </c>
+      <c r="N52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M52" s="3" t="s">
+      <c r="O52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>200</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>100</v>
-      </c>
       <c r="Q52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R52" s="3">
         <v>100</v>
       </c>
       <c r="S52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3790,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F54" s="3">
         <v>15800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>17100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>19000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>6600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>4700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>4600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>5500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>6500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,170 +3924,184 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
-      </c>
-      <c r="P57" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
       </c>
       <c r="V57" s="3">
+        <v>100</v>
+      </c>
+      <c r="W57" s="3">
+        <v>100</v>
+      </c>
+      <c r="X57" s="3">
         <v>300</v>
       </c>
-      <c r="W57" s="3">
-        <v>100</v>
-      </c>
-      <c r="X57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3">
+        <v>100</v>
+      </c>
+      <c r="T58" s="3">
+        <v>100</v>
+      </c>
+      <c r="U58" s="3">
+        <v>100</v>
+      </c>
+      <c r="V58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X58" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
-        <v>100</v>
-      </c>
-      <c r="L58" s="3">
-        <v>100</v>
-      </c>
-      <c r="M58" s="3">
-        <v>100</v>
-      </c>
-      <c r="N58" s="3">
-        <v>100</v>
-      </c>
-      <c r="O58" s="3">
-        <v>100</v>
-      </c>
-      <c r="P58" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>100</v>
-      </c>
-      <c r="R58" s="3">
-        <v>100</v>
-      </c>
-      <c r="S58" s="3">
-        <v>100</v>
-      </c>
-      <c r="T58" s="3">
-        <v>1000</v>
-      </c>
-      <c r="U58" s="3">
-        <v>1000</v>
-      </c>
-      <c r="V58" s="3">
-        <v>900</v>
-      </c>
-      <c r="W58" s="3">
-        <v>600</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>5200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>400</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
       </c>
       <c r="K59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L59" s="3">
         <v>300</v>
@@ -3837,22 +4110,22 @@
         <v>300</v>
       </c>
       <c r="N59" s="3">
+        <v>300</v>
+      </c>
+      <c r="O59" s="3">
+        <v>300</v>
+      </c>
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
-      </c>
-      <c r="P59" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>300</v>
       </c>
       <c r="R59" s="3">
         <v>200</v>
       </c>
       <c r="S59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T59" s="3">
         <v>200</v>
@@ -3864,81 +4137,93 @@
         <v>200</v>
       </c>
       <c r="W59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>700</v>
-      </c>
-      <c r="P60" s="3">
-        <v>600</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>600</v>
       </c>
       <c r="R60" s="3">
         <v>600</v>
       </c>
       <c r="S60" s="3">
+        <v>600</v>
+      </c>
+      <c r="T60" s="3">
+        <v>600</v>
+      </c>
+      <c r="U60" s="3">
         <v>400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,16 +4290,22 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>100</v>
+      <c r="D62" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -4026,10 +4317,10 @@
         <v>100</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>11</v>
+        <v>100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -4037,17 +4328,17 @@
       <c r="L62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>11</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -4064,17 +4355,23 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>11</v>
+      <c r="V62" s="3">
+        <v>0</v>
       </c>
       <c r="W62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,8 +4586,14 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4286,67 +4601,73 @@
         <v>900</v>
       </c>
       <c r="E66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>900</v>
+      </c>
+      <c r="G66" s="3">
         <v>700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>700</v>
-      </c>
-      <c r="P66" s="3">
-        <v>600</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>600</v>
       </c>
       <c r="R66" s="3">
         <v>600</v>
       </c>
       <c r="S66" s="3">
+        <v>600</v>
+      </c>
+      <c r="T66" s="3">
+        <v>600</v>
+      </c>
+      <c r="U66" s="3">
         <v>400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4910,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4984,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-42800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-40600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-38200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-35700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-33800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-33100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-31600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-29600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-28000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-26100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-24500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-22900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-21300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-19800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-16800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-15500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-14300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-12800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-11700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-10700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-9800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5280,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F76" s="3">
         <v>14900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>16400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>13400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>5200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>6100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>3600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>4100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>3000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>3200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>4200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>5100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5428,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-2000</v>
       </c>
       <c r="I81" s="3">
         <v>-1600</v>
       </c>
       <c r="J81" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="K81" s="3">
         <v>-1600</v>
       </c>
       <c r="L81" s="3">
-        <v>-1600</v>
+        <v>-1900</v>
       </c>
       <c r="M81" s="3">
         <v>-1600</v>
       </c>
       <c r="N81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="P81" s="3">
         <v>-1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5613,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5236,25 +5633,25 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -5269,16 +5666,16 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
       <c r="U83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
@@ -5286,8 +5683,14 @@
       <c r="X83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6053,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G89" s="3">
         <v>-2000</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-1100</v>
       </c>
       <c r="H89" s="3">
         <v>-1200</v>
       </c>
       <c r="I89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-1000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6159,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5729,23 +6170,23 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -5771,14 +6212,14 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
@@ -5786,10 +6227,16 @@
         <v>0</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6377,14 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5936,31 +6395,31 @@
         <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
@@ -5969,31 +6428,37 @@
         <v>-100</v>
       </c>
       <c r="Q94" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S94" s="3">
+        <v>100</v>
+      </c>
+      <c r="T94" s="3">
         <v>400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-600</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6483,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6553,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6775,14 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6302,64 +6793,70 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>14400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>3500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>2800</v>
-      </c>
-      <c r="J100" s="3">
-        <v>2100</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>2100</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>2900</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-200</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>5200</v>
       </c>
-      <c r="W100" s="3" t="s">
+      <c r="Y100" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="X100" s="3" t="s">
+      <c r="Z100" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6923,84 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>13100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>2200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
-      </c>
-      <c r="S102" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="T102" s="3">
-        <v>-700</v>
       </c>
       <c r="U102" s="3">
         <v>-1200</v>
       </c>
       <c r="V102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="X102" s="3">
         <v>4200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-1400</v>
       </c>
     </row>
